--- a/附件2：2025年上海市大学生计算机应用能力大赛报名汇总表.xlsx
+++ b/附件2：2025年上海市大学生计算机应用能力大赛报名汇总表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\旧机器：X1 Yoga\桌面-ThinkPad-2022.11\2022上海大赛\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\IDEA Java Code\LinkUp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D17393F-D008-4C60-BF4F-6F20A706A838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="3833"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="73">
   <si>
     <t>作品名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -255,12 +256,51 @@
     <t>作品类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>复旦大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机科学技术学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Web应用与开发</t>
+  </si>
+  <si>
+    <t>陈星宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>350122200311180193</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3257922872@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄宸一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Link Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,7 +533,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="28">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -580,15 +620,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
@@ -597,13 +640,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -618,42 +658,46 @@
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="28" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="28">
-    <cellStyle name="Hyperlink" xfId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="12"/>
-    <cellStyle name="Hyperlink 3" xfId="14"/>
-    <cellStyle name="Hyperlink 4" xfId="22"/>
-    <cellStyle name="Input 2" xfId="11"/>
-    <cellStyle name="Normal 2" xfId="10"/>
+  <cellStyles count="29">
+    <cellStyle name="Hyperlink" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Hyperlink 3" xfId="14" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Hyperlink 4" xfId="22" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Input 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="3"/>
-    <cellStyle name="常规 2 2" xfId="16"/>
-    <cellStyle name="常规 2 3" xfId="19"/>
-    <cellStyle name="常规 3" xfId="6"/>
-    <cellStyle name="常规 3 2" xfId="24"/>
-    <cellStyle name="常规 4" xfId="23"/>
-    <cellStyle name="常规 5" xfId="26"/>
-    <cellStyle name="常规 6" xfId="27"/>
-    <cellStyle name="超链接 2" xfId="4"/>
-    <cellStyle name="超链接 2 2" xfId="18"/>
-    <cellStyle name="超链接 2 3" xfId="20"/>
-    <cellStyle name="超链接 3" xfId="9"/>
-    <cellStyle name="超链接 3 2" xfId="21"/>
-    <cellStyle name="超链接 4" xfId="13"/>
-    <cellStyle name="超链接 5" xfId="25"/>
+    <cellStyle name="常规 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="常规 2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="常规 2 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="常规 3" xfId="6" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="常规 3 2" xfId="24" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="常规 4" xfId="23" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 5" xfId="26" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="常规 6" xfId="27" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="超链接" xfId="28" builtinId="8"/>
+    <cellStyle name="超链接 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="超链接 2 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="超链接 2 3" xfId="20" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="超链接 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="超链接 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="超链接 4" xfId="13" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="超链接 5" xfId="25" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
     <cellStyle name="输入" xfId="1" builtinId="20"/>
-    <cellStyle name="输入 2" xfId="2"/>
-    <cellStyle name="输入 3" xfId="5"/>
-    <cellStyle name="输入 4" xfId="7"/>
-    <cellStyle name="输入 5" xfId="17"/>
-    <cellStyle name="输入 6" xfId="15"/>
+    <cellStyle name="输入 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="输入 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="输入 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="输入 5" xfId="17" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="输入 6" xfId="15" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -675,7 +719,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Zhiqiang Yang" refreshedDate="43841.364908333337" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="551">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Zhiqiang Yang" refreshedDate="43841.364908333337" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="551" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AK1" sheet="Sheet1"/>
   </cacheSource>
@@ -22871,7 +22915,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="38">
     <pivotField dataField="1" showAll="0"/>
@@ -23289,182 +23333,238 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20.73046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.06640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="14.73046875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.08203125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="14.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="17.796875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.59765625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.58203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.83203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="28" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.46484375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.796875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" style="1" customWidth="1"/>
     <col min="14" max="14" width="18.33203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1"/>
     <col min="16" max="16" width="24.33203125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="6.73046875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.75" style="1" customWidth="1"/>
     <col min="18" max="18" width="5" style="1" customWidth="1"/>
     <col min="19" max="19" width="27.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="17.46484375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="20.73046875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="21.796875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="6.73046875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.5" style="1" customWidth="1"/>
+    <col min="21" max="21" width="20.75" style="1" customWidth="1"/>
+    <col min="22" max="22" width="21.83203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="6.75" style="1" customWidth="1"/>
     <col min="24" max="24" width="17.33203125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="6.06640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="5.796875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="27.796875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="16.265625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="11.73046875" style="1" customWidth="1"/>
-    <col min="30" max="30" width="18.59765625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="17.265625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="6.08203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="5.83203125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="27.83203125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="16.25" style="1" customWidth="1"/>
+    <col min="29" max="29" width="11.75" style="1" customWidth="1"/>
+    <col min="30" max="30" width="18.58203125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="17.25" style="1" customWidth="1"/>
     <col min="32" max="32" width="5" style="1" customWidth="1"/>
-    <col min="33" max="33" width="5.796875" style="1" customWidth="1"/>
+    <col min="33" max="33" width="5.83203125" style="1" customWidth="1"/>
     <col min="34" max="34" width="9" style="1"/>
     <col min="35" max="35" width="15.33203125" style="1" customWidth="1"/>
-    <col min="36" max="36" width="10.73046875" style="1" customWidth="1"/>
+    <col min="36" max="36" width="10.75" style="1" customWidth="1"/>
     <col min="37" max="37" width="18" style="1" customWidth="1"/>
     <col min="38" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="12" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:37" s="11" customFormat="1" ht="25" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Y1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="Z1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AB1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AC1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AD1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+    </row>
+    <row r="2" spans="1:37" ht="21" customHeight="1">
+      <c r="B2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="1">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="1">
+        <v>18046085666</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R2" s="1">
+        <v>22</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1. 数据库应用系统,2. Web应用与开发,3. 数字媒体设计,4. 微课与教学辅助,5. 程序设计应用（含移动应用）,6.A 人工智能应用,6.B 大数据应用,7.A 物联网,7.B 区块链应用,8. 信息可视化设计,9. 计算机音乐创作,10. 国际生“汉学”,11.A 企业合作项目（大数据主题赛）,11.B 企业合作项目（人工智能挑战赛）,11.C 企业合作项目（物联网专项赛）,11.D 企业合作项目（软件应用与开发专项赛）,11.E 企业合作项目（区块链）"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{6AF7B727-AB12-4E28-A940-8F4DC4ECA071}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="20.265625" customWidth="1"/>
-    <col min="2" max="2" width="24.59765625" customWidth="1"/>
-    <col min="6" max="6" width="19.06640625" customWidth="1"/>
+    <col min="1" max="1" width="20.25" customWidth="1"/>
+    <col min="2" max="2" width="24.58203125" customWidth="1"/>
+    <col min="6" max="6" width="19.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>49</v>
       </c>
@@ -23472,179 +23572,179 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23">
         <v>551</v>
       </c>
     </row>
@@ -23655,224 +23755,224 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C2:E29"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="22.59765625" customWidth="1"/>
+    <col min="3" max="3" width="22.58203125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C2" s="13" t="s">
+    <row r="2" spans="3:5">
+      <c r="C2" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C3" s="13" t="s">
+    <row r="3" spans="3:5">
+      <c r="C3" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C4" s="13" t="s">
+    <row r="4" spans="3:5">
+      <c r="C4" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C5" s="13" t="s">
+    <row r="5" spans="3:5">
+      <c r="C5" s="12" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C6" s="13" t="s">
+    <row r="6" spans="3:5">
+      <c r="C6" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C7" s="13" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="12" t="s">
         <v>47</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C8" s="13" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="12" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C9" s="13"/>
+    <row r="9" spans="3:5">
+      <c r="C9" s="12"/>
       <c r="E9" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C10" s="13" t="s">
+    <row r="10" spans="3:5">
+      <c r="C10" s="12" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C11" s="13" t="s">
+    <row r="11" spans="3:5">
+      <c r="C11" s="12" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C12" s="13" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C13" s="13" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="12" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C14" s="13" t="s">
+    <row r="14" spans="3:5">
+      <c r="C14" s="12" t="s">
         <v>57</v>
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C15" s="13" t="s">
+    <row r="15" spans="3:5">
+      <c r="C15" s="12" t="s">
         <v>58</v>
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C16" s="13" t="s">
+    <row r="16" spans="3:5">
+      <c r="C16" s="12" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C17" s="13" t="s">
+    <row r="17" spans="3:5">
+      <c r="C17" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C18" s="13" t="s">
+    <row r="18" spans="3:5">
+      <c r="C18" s="12" t="s">
         <v>46</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C19" s="13" t="s">
+    <row r="19" spans="3:5">
+      <c r="C19" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C20" s="13"/>
+    <row r="20" spans="3:5">
+      <c r="C20" s="12"/>
       <c r="E20" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C21" s="13" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="12" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C22" s="13" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C23" s="13" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C24" s="13" t="s">
+    <row r="24" spans="3:5">
+      <c r="C24" s="12" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C25" s="13" t="s">
+    <row r="25" spans="3:5">
+      <c r="C25" s="12" t="s">
         <v>60</v>
       </c>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C26" s="13" t="s">
+    <row r="26" spans="3:5">
+      <c r="C26" s="12" t="s">
         <v>36</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C27" s="13" t="s">
+    <row r="27" spans="3:5">
+      <c r="C27" s="12" t="s">
         <v>61</v>
       </c>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C28" s="13" t="s">
+    <row r="28" spans="3:5">
+      <c r="C28" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:5">
       <c r="E29" s="4" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="C2:C26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C26">
     <sortCondition ref="C2:C26"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -23881,122 +23981,122 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="E2:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="2" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="5:5">
       <c r="E2" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="5:5">
       <c r="E3" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="5:5">
       <c r="E4" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="5:5">
       <c r="E5" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="5:5">
       <c r="E6" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="5:5">
       <c r="E7" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="5:5">
       <c r="E8" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="5:5">
       <c r="E9" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="5:5">
       <c r="E10" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="5:5">
       <c r="E11" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="5:5">
       <c r="E12" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="5:5">
       <c r="E13" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="5:5">
       <c r="E14" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="5:5">
       <c r="E15" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="5:5">
       <c r="E16" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:5">
       <c r="E17" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="5:5">
       <c r="E18" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="5:5">
       <c r="E19" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="5:5">
       <c r="E20" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="5:5">
       <c r="E21" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="5:5">
       <c r="E22" s="4" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="E2:E22">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:E22">
     <sortCondition ref="E2:E22"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/附件2：2025年上海市大学生计算机应用能力大赛报名汇总表.xlsx
+++ b/附件2：2025年上海市大学生计算机应用能力大赛报名汇总表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\IDEA Java Code\LinkUp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FDU\Temp\LinkUp\LinkUp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D17393F-D008-4C60-BF4F-6F20A706A838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C786FD73-A6D9-48AA-9658-044C200ABC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="30940" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="75">
   <si>
     <t>作品名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -295,12 +295,20 @@
     <t>Link Up</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>330327200405300116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hcy13245@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23336,11 +23344,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="5" customWidth="1"/>
     <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
@@ -23381,7 +23389,7 @@
     <col min="38" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="11" customFormat="1" ht="25" customHeight="1">
+    <row r="1" spans="1:37" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -23480,7 +23488,7 @@
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
     </row>
-    <row r="2" spans="1:37" ht="21" customHeight="1">
+    <row r="2" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>72</v>
       </c>
@@ -23520,6 +23528,9 @@
       <c r="O2" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="P2" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Q2" s="1" t="s">
         <v>68</v>
       </c>
@@ -23532,6 +23543,12 @@
       <c r="T2" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="U2" s="1">
+        <v>17706660011</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -23543,9 +23560,10 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1" xr:uid="{6AF7B727-AB12-4E28-A940-8F4DC4ECA071}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{A067C481-7920-4F67-A246-614C2DC3E354}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -23557,14 +23575,14 @@
       <selection activeCell="A2" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.25" customWidth="1"/>
     <col min="2" max="2" width="24.58203125" customWidth="1"/>
     <col min="6" max="6" width="19.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>49</v>
       </c>
@@ -23572,7 +23590,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>38</v>
       </c>
@@ -23580,7 +23598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>48</v>
       </c>
@@ -23588,7 +23606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>40</v>
       </c>
@@ -23596,7 +23614,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
@@ -23604,7 +23622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>47</v>
       </c>
@@ -23612,7 +23630,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -23620,7 +23638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>44</v>
       </c>
@@ -23628,7 +23646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
@@ -23636,7 +23654,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>43</v>
       </c>
@@ -23644,7 +23662,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -23652,7 +23670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>42</v>
       </c>
@@ -23660,7 +23678,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
@@ -23668,7 +23686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>45</v>
       </c>
@@ -23676,7 +23694,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>34</v>
       </c>
@@ -23684,7 +23702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
@@ -23692,7 +23710,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>31</v>
       </c>
@@ -23700,7 +23718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>39</v>
       </c>
@@ -23708,7 +23726,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>35</v>
       </c>
@@ -23716,7 +23734,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>36</v>
       </c>
@@ -23724,7 +23742,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>37</v>
       </c>
@@ -23732,7 +23750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>50</v>
       </c>
@@ -23740,7 +23758,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>51</v>
       </c>
@@ -23762,13 +23780,13 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="22.58203125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5">
+    <row r="2" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C2" s="12" t="s">
         <v>53</v>
       </c>
@@ -23776,7 +23794,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="3:5">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C3" s="12" t="s">
         <v>48</v>
       </c>
@@ -23784,7 +23802,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="3:5">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C4" s="12" t="s">
         <v>40</v>
       </c>
@@ -23792,7 +23810,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="3:5">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C5" s="12" t="s">
         <v>30</v>
       </c>
@@ -23800,13 +23818,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="3:5">
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C6" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="3:5">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C7" s="12" t="s">
         <v>47</v>
       </c>
@@ -23814,7 +23832,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C8" s="12" t="s">
         <v>41</v>
       </c>
@@ -23822,13 +23840,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="3:5">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C9" s="12"/>
       <c r="E9" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="3:5">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C10" s="12" t="s">
         <v>55</v>
       </c>
@@ -23836,13 +23854,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="3:5">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C11" s="12" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="3:5">
+    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C12" s="12" t="s">
         <v>43</v>
       </c>
@@ -23850,7 +23868,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C13" s="12" t="s">
         <v>32</v>
       </c>
@@ -23858,19 +23876,19 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="3:5">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C14" s="12" t="s">
         <v>57</v>
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="3:5">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C15" s="12" t="s">
         <v>58</v>
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="3:5">
+    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C16" s="12" t="s">
         <v>42</v>
       </c>
@@ -23878,13 +23896,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="3:5">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18" s="12" t="s">
         <v>46</v>
       </c>
@@ -23892,7 +23910,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" s="12" t="s">
         <v>45</v>
       </c>
@@ -23900,13 +23918,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C20" s="12"/>
       <c r="E20" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C21" s="12" t="s">
         <v>29</v>
       </c>
@@ -23914,7 +23932,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>31</v>
       </c>
@@ -23922,7 +23940,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C23" s="12" t="s">
         <v>39</v>
       </c>
@@ -23930,7 +23948,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="3:5">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C24" s="12" t="s">
         <v>35</v>
       </c>
@@ -23938,13 +23956,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="3:5">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C25" s="12" t="s">
         <v>60</v>
       </c>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="3:5">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C26" s="12" t="s">
         <v>36</v>
       </c>
@@ -23952,13 +23970,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="3:5">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C27" s="12" t="s">
         <v>61</v>
       </c>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="3:5">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C28" s="12" t="s">
         <v>37</v>
       </c>
@@ -23966,7 +23984,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="3:5">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E29" s="4" t="s">
         <v>50</v>
       </c>
@@ -23988,109 +24006,109 @@
       <selection activeCell="E2" sqref="E2:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="5:5">
+    <row r="2" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E2" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="5:5">
+    <row r="3" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E3" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="5:5">
+    <row r="4" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E4" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="5:5">
+    <row r="5" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E5" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="5:5">
+    <row r="6" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E6" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="5:5">
+    <row r="7" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E7" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="5:5">
+    <row r="8" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E8" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="5:5">
+    <row r="9" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E9" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="5:5">
+    <row r="10" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E10" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="5:5">
+    <row r="11" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E11" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="5:5">
+    <row r="12" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E12" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="5:5">
+    <row r="13" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E13" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="5:5">
+    <row r="14" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E14" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="5:5">
+    <row r="15" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E15" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="5:5">
+    <row r="16" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E16" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="5:5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="5:5">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E18" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="5:5">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E19" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="5:5">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E20" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="5:5">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E21" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="5:5">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E22" s="4" t="s">
         <v>50</v>
       </c>

--- a/附件2：2025年上海市大学生计算机应用能力大赛报名汇总表.xlsx
+++ b/附件2：2025年上海市大学生计算机应用能力大赛报名汇总表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FDU\Temp\LinkUp\LinkUp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C786FD73-A6D9-48AA-9658-044C200ABC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B3F8D89-ADD6-46D0-ACFF-AC7A5318C75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="30940" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="76">
   <si>
     <t>作品名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -303,12 +303,16 @@
     <t>hcy13245@163.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>张向东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23344,11 +23348,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12" style="5" customWidth="1"/>
     <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
@@ -23389,7 +23393,7 @@
     <col min="38" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" s="11" customFormat="1" ht="25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -23488,7 +23492,7 @@
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
     </row>
-    <row r="2" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" ht="21" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>72</v>
       </c>
@@ -23497,6 +23501,9 @@
       </c>
       <c r="D2" s="1" t="s">
         <v>64</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>65</v>
@@ -23575,14 +23582,14 @@
       <selection activeCell="A2" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="20.25" customWidth="1"/>
     <col min="2" max="2" width="24.58203125" customWidth="1"/>
     <col min="6" max="6" width="19.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>49</v>
       </c>
@@ -23590,7 +23597,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>38</v>
       </c>
@@ -23598,7 +23605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>48</v>
       </c>
@@ -23606,7 +23613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>40</v>
       </c>
@@ -23614,7 +23621,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
@@ -23622,7 +23629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>47</v>
       </c>
@@ -23630,7 +23637,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -23638,7 +23645,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
         <v>44</v>
       </c>
@@ -23646,7 +23653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
@@ -23654,7 +23661,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>43</v>
       </c>
@@ -23662,7 +23669,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -23670,7 +23677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
         <v>42</v>
       </c>
@@ -23678,7 +23685,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
@@ -23686,7 +23693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>45</v>
       </c>
@@ -23694,7 +23701,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>34</v>
       </c>
@@ -23702,7 +23709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
@@ -23710,7 +23717,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
         <v>31</v>
       </c>
@@ -23718,7 +23725,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
         <v>39</v>
       </c>
@@ -23726,7 +23733,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
         <v>35</v>
       </c>
@@ -23734,7 +23741,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
         <v>36</v>
       </c>
@@ -23742,7 +23749,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
         <v>37</v>
       </c>
@@ -23750,7 +23757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
         <v>50</v>
       </c>
@@ -23758,7 +23765,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
         <v>51</v>
       </c>
@@ -23780,13 +23787,13 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="3" max="3" width="22.58203125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:5">
       <c r="C2" s="12" t="s">
         <v>53</v>
       </c>
@@ -23794,7 +23801,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:5">
       <c r="C3" s="12" t="s">
         <v>48</v>
       </c>
@@ -23802,7 +23809,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:5">
       <c r="C4" s="12" t="s">
         <v>40</v>
       </c>
@@ -23810,7 +23817,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:5">
       <c r="C5" s="12" t="s">
         <v>30</v>
       </c>
@@ -23818,13 +23825,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:5">
       <c r="C6" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:5">
       <c r="C7" s="12" t="s">
         <v>47</v>
       </c>
@@ -23832,7 +23839,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:5">
       <c r="C8" s="12" t="s">
         <v>41</v>
       </c>
@@ -23840,13 +23847,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:5">
       <c r="C9" s="12"/>
       <c r="E9" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:5">
       <c r="C10" s="12" t="s">
         <v>55</v>
       </c>
@@ -23854,13 +23861,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:5">
       <c r="C11" s="12" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:5">
       <c r="C12" s="12" t="s">
         <v>43</v>
       </c>
@@ -23868,7 +23875,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:5">
       <c r="C13" s="12" t="s">
         <v>32</v>
       </c>
@@ -23876,19 +23883,19 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:5">
       <c r="C14" s="12" t="s">
         <v>57</v>
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:5">
       <c r="C15" s="12" t="s">
         <v>58</v>
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:5">
       <c r="C16" s="12" t="s">
         <v>42</v>
       </c>
@@ -23896,13 +23903,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:5">
       <c r="C17" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:5">
       <c r="C18" s="12" t="s">
         <v>46</v>
       </c>
@@ -23910,7 +23917,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:5">
       <c r="C19" s="12" t="s">
         <v>45</v>
       </c>
@@ -23918,13 +23925,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:5">
       <c r="C20" s="12"/>
       <c r="E20" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:5">
       <c r="C21" s="12" t="s">
         <v>29</v>
       </c>
@@ -23932,7 +23939,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:5">
       <c r="C22" s="12" t="s">
         <v>31</v>
       </c>
@@ -23940,7 +23947,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:5">
       <c r="C23" s="12" t="s">
         <v>39</v>
       </c>
@@ -23948,7 +23955,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:5">
       <c r="C24" s="12" t="s">
         <v>35</v>
       </c>
@@ -23956,13 +23963,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:5">
       <c r="C25" s="12" t="s">
         <v>60</v>
       </c>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:5">
       <c r="C26" s="12" t="s">
         <v>36</v>
       </c>
@@ -23970,13 +23977,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:5">
       <c r="C27" s="12" t="s">
         <v>61</v>
       </c>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:5">
       <c r="C28" s="12" t="s">
         <v>37</v>
       </c>
@@ -23984,7 +23991,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:5">
       <c r="E29" s="4" t="s">
         <v>50</v>
       </c>
@@ -24006,109 +24013,109 @@
       <selection activeCell="E2" sqref="E2:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="2" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="5:5">
       <c r="E2" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="5:5">
       <c r="E3" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:5">
       <c r="E4" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:5">
       <c r="E5" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:5">
       <c r="E6" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:5">
       <c r="E7" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:5">
       <c r="E8" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:5">
       <c r="E9" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:5">
       <c r="E10" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:5">
       <c r="E11" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="5:5">
       <c r="E12" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="5:5">
       <c r="E13" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="5:5">
       <c r="E14" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="5:5">
       <c r="E15" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="5:5">
       <c r="E16" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5">
       <c r="E17" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:5">
       <c r="E18" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:5">
       <c r="E19" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:5">
       <c r="E20" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:5">
       <c r="E21" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:5">
       <c r="E22" s="4" t="s">
         <v>50</v>
       </c>

--- a/附件2：2025年上海市大学生计算机应用能力大赛报名汇总表.xlsx
+++ b/附件2：2025年上海市大学生计算机应用能力大赛报名汇总表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\IDEA Java Code\LinkUp\仓库\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B3F8D89-ADD6-46D0-ACFF-AC7A5318C75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2889BF-5DBC-4D41-90DC-5B003515179B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,24 +17,38 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AD$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="859">
   <si>
     <t>作品名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -265,9 +279,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2. Web应用与开发</t>
-  </si>
-  <si>
     <t>陈星宇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,10 +303,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Link Up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>330327200405300116</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,7 +311,2366 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张向东</t>
+    <t>戴开宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报名号
+（后期产生）</t>
+  </si>
+  <si>
+    <t>作品名称</t>
+  </si>
+  <si>
+    <t>学校</t>
+  </si>
+  <si>
+    <t>学院</t>
+  </si>
+  <si>
+    <t>指导老师</t>
+  </si>
+  <si>
+    <t>作品小类别</t>
+  </si>
+  <si>
+    <t>学生1</t>
+  </si>
+  <si>
+    <t>身份证1</t>
+  </si>
+  <si>
+    <t>年级1</t>
+  </si>
+  <si>
+    <t>年龄1</t>
+  </si>
+  <si>
+    <t>专业1</t>
+  </si>
+  <si>
+    <t>学院1</t>
+  </si>
+  <si>
+    <t>电话1</t>
+  </si>
+  <si>
+    <t>邮箱1</t>
+  </si>
+  <si>
+    <t>学生2</t>
+  </si>
+  <si>
+    <t>身份证2</t>
+  </si>
+  <si>
+    <t>年级2</t>
+  </si>
+  <si>
+    <t>年龄2</t>
+  </si>
+  <si>
+    <t>专业2</t>
+  </si>
+  <si>
+    <t>学院2</t>
+  </si>
+  <si>
+    <t>电话2</t>
+  </si>
+  <si>
+    <t>邮箱2</t>
+  </si>
+  <si>
+    <t>学生3</t>
+  </si>
+  <si>
+    <t>身份证3</t>
+  </si>
+  <si>
+    <t>年级3</t>
+  </si>
+  <si>
+    <t>年龄3</t>
+  </si>
+  <si>
+    <t>专业3</t>
+  </si>
+  <si>
+    <t>学院3</t>
+  </si>
+  <si>
+    <t>电话3</t>
+  </si>
+  <si>
+    <t>邮箱3</t>
+  </si>
+  <si>
+    <t>学生4</t>
+  </si>
+  <si>
+    <t>身份证4</t>
+  </si>
+  <si>
+    <t>年级4</t>
+  </si>
+  <si>
+    <t>年龄4</t>
+  </si>
+  <si>
+    <t>专业4</t>
+  </si>
+  <si>
+    <t>学院4</t>
+  </si>
+  <si>
+    <t>电话4</t>
+  </si>
+  <si>
+    <t>邮箱4</t>
+  </si>
+  <si>
+    <t>20200057</t>
+  </si>
+  <si>
+    <t>失乐园</t>
+  </si>
+  <si>
+    <t>电影学院</t>
+  </si>
+  <si>
+    <t>邹启明</t>
+  </si>
+  <si>
+    <t>多媒体制作</t>
+  </si>
+  <si>
+    <t>邓旭冬</t>
+  </si>
+  <si>
+    <t>362525199911084815</t>
+  </si>
+  <si>
+    <t>大二</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>广播电视编导</t>
+  </si>
+  <si>
+    <t>16621178683</t>
+  </si>
+  <si>
+    <t>1254651062@qq.com</t>
+  </si>
+  <si>
+    <t>唐翌宁</t>
+  </si>
+  <si>
+    <t>310104199901222829</t>
+  </si>
+  <si>
+    <t>大三</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>计算机科学技术</t>
+  </si>
+  <si>
+    <t>计算机工程与科学</t>
+  </si>
+  <si>
+    <t>18930071037</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>20200056</t>
+  </si>
+  <si>
+    <t>基于AR的虚拟实验教学平台</t>
+  </si>
+  <si>
+    <t>计算机工程与科学学院</t>
+  </si>
+  <si>
+    <t>严颖敏 柴剑飞</t>
+  </si>
+  <si>
+    <t>虚拟实验、微课程</t>
+  </si>
+  <si>
+    <t>郑帅</t>
+  </si>
+  <si>
+    <t>370911200001156831</t>
+  </si>
+  <si>
+    <t>计算机科学与技术</t>
+  </si>
+  <si>
+    <t>16621298868</t>
+  </si>
+  <si>
+    <t>zhengshuai1209@163.com</t>
+  </si>
+  <si>
+    <t>朱威</t>
+  </si>
+  <si>
+    <t>23062120001018045X</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>18800322919</t>
+  </si>
+  <si>
+    <t>2561101729@qq.com</t>
+  </si>
+  <si>
+    <t>金昊韵</t>
+  </si>
+  <si>
+    <t>310115200002030123</t>
+  </si>
+  <si>
+    <t>18721752710</t>
+  </si>
+  <si>
+    <t>2949618801@qq.com</t>
+  </si>
+  <si>
+    <t>20200055</t>
+  </si>
+  <si>
+    <t>易教——家长与老师沟通的平台</t>
+  </si>
+  <si>
+    <t>严颖敏 高珏</t>
+  </si>
+  <si>
+    <t>程序设计应用</t>
+  </si>
+  <si>
+    <t>章志伟</t>
+  </si>
+  <si>
+    <t>340823199901045810</t>
+  </si>
+  <si>
+    <t>17717026759</t>
+  </si>
+  <si>
+    <t>2736697626@qq.com</t>
+  </si>
+  <si>
+    <t>赵振烨</t>
+  </si>
+  <si>
+    <t>330621199901128055</t>
+  </si>
+  <si>
+    <t>15968543961</t>
+  </si>
+  <si>
+    <t>1257018991@qq.com</t>
+  </si>
+  <si>
+    <t>郭沛妮</t>
+  </si>
+  <si>
+    <t>510502200010150720</t>
+  </si>
+  <si>
+    <t>智能科学与技术</t>
+  </si>
+  <si>
+    <t>18800321893</t>
+  </si>
+  <si>
+    <t>974079664@qq.com</t>
+  </si>
+  <si>
+    <t>20200054</t>
+  </si>
+  <si>
+    <t>AI驱动的计算机能力训练平台</t>
+  </si>
+  <si>
+    <t>社区学院</t>
+  </si>
+  <si>
+    <t>单子鹏</t>
+  </si>
+  <si>
+    <t>周煦林</t>
+  </si>
+  <si>
+    <t>410104200110110010</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>机械电子工程</t>
+  </si>
+  <si>
+    <t>机自学院</t>
+  </si>
+  <si>
+    <t>13603829901</t>
+  </si>
+  <si>
+    <t>voidzxl@163.com</t>
+  </si>
+  <si>
+    <t>李智祥</t>
+  </si>
+  <si>
+    <t>361127200203140658</t>
+  </si>
+  <si>
+    <t>大一</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>19821216557</t>
+  </si>
+  <si>
+    <t>lizhixiang0314@163.com</t>
+  </si>
+  <si>
+    <t>20200053</t>
+  </si>
+  <si>
+    <t>“智收”基于NFC的无人付款及账单程序</t>
+  </si>
+  <si>
+    <t>通信学院</t>
+  </si>
+  <si>
+    <t>佘俊 卞敏捷</t>
+  </si>
+  <si>
+    <t>李春宇</t>
+  </si>
+  <si>
+    <t>320924199805031417</t>
+  </si>
+  <si>
+    <t>通信工程</t>
+  </si>
+  <si>
+    <t>通信与信息工程学院</t>
+  </si>
+  <si>
+    <t>18800278138</t>
+  </si>
+  <si>
+    <t>469548566@qq.com</t>
+  </si>
+  <si>
+    <t>汪孟翔</t>
+  </si>
+  <si>
+    <t>52010319990213521X</t>
+  </si>
+  <si>
+    <t>17585241519</t>
+  </si>
+  <si>
+    <t>1004110666@qq.com</t>
+  </si>
+  <si>
+    <t>杨磊</t>
+  </si>
+  <si>
+    <t>421022199908196014</t>
+  </si>
+  <si>
+    <t>15671398235</t>
+  </si>
+  <si>
+    <t>cildhdi@shu.edu.cn</t>
+  </si>
+  <si>
+    <t>20200052</t>
+  </si>
+  <si>
+    <t>穿搭宝——基于深度学习的穿搭推荐分享平台</t>
+  </si>
+  <si>
+    <t>高鸿皓</t>
+  </si>
+  <si>
+    <t>路子飞</t>
+  </si>
+  <si>
+    <t>370305199903280713</t>
+  </si>
+  <si>
+    <t>信息工程</t>
+  </si>
+  <si>
+    <t>中欧工程技术学院</t>
+  </si>
+  <si>
+    <t>18817289557</t>
+  </si>
+  <si>
+    <t>dluffy19@163.com</t>
+  </si>
+  <si>
+    <t>沈珂钒</t>
+  </si>
+  <si>
+    <t>320681200010015217</t>
+  </si>
+  <si>
+    <t>13348096613</t>
+  </si>
+  <si>
+    <t>631593775@qq.com</t>
+  </si>
+  <si>
+    <t>朱志宏</t>
+  </si>
+  <si>
+    <t>522132200001031412</t>
+  </si>
+  <si>
+    <t>13761327136</t>
+  </si>
+  <si>
+    <t>1367623740@qq.com</t>
+  </si>
+  <si>
+    <t>20200051</t>
+  </si>
+  <si>
+    <t>SHU学吧——校园S2S多元技能学习平台</t>
+  </si>
+  <si>
+    <t>佘俊，张博锋</t>
+  </si>
+  <si>
+    <t>陈香香</t>
+  </si>
+  <si>
+    <t>310230199901261463</t>
+  </si>
+  <si>
+    <t>18800309250</t>
+  </si>
+  <si>
+    <t>1214971295@qq.com</t>
+  </si>
+  <si>
+    <t>尹畅</t>
+  </si>
+  <si>
+    <t>340202199908221413</t>
+  </si>
+  <si>
+    <t>18817676736</t>
+  </si>
+  <si>
+    <t>1144028227@qq.com</t>
+  </si>
+  <si>
+    <t>李经纬</t>
+  </si>
+  <si>
+    <t>310102199809164416</t>
+  </si>
+  <si>
+    <t>13641825336</t>
+  </si>
+  <si>
+    <t>coyote_waltz@163.com</t>
+  </si>
+  <si>
+    <t>20200050</t>
+  </si>
+  <si>
+    <t>Life Log</t>
+  </si>
+  <si>
+    <t>高洪皓，方昱春</t>
+  </si>
+  <si>
+    <t>数据库应用系统</t>
+  </si>
+  <si>
+    <t>卢皙钰</t>
+  </si>
+  <si>
+    <t>450981199810160025</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>18817406097</t>
+  </si>
+  <si>
+    <t>673499653@qq.com</t>
+  </si>
+  <si>
+    <t>冉琼慧子</t>
+  </si>
+  <si>
+    <t>522225199904070021</t>
+  </si>
+  <si>
+    <t>计算机科学与科学学院</t>
+  </si>
+  <si>
+    <t>17621908514</t>
+  </si>
+  <si>
+    <t>18685140407.163.com</t>
+  </si>
+  <si>
+    <t>李沁芮</t>
+  </si>
+  <si>
+    <t>510403199812210719</t>
+  </si>
+  <si>
+    <t>18817270759</t>
+  </si>
+  <si>
+    <t>734928976@qq.com</t>
+  </si>
+  <si>
+    <t>20200049</t>
+  </si>
+  <si>
+    <t>吃吧!SHUer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">高珏、卞敏捷 </t>
+  </si>
+  <si>
+    <t>徐向飞</t>
+  </si>
+  <si>
+    <t>340826199905128911</t>
+  </si>
+  <si>
+    <t>18019103230</t>
+  </si>
+  <si>
+    <t>1258003050@qq.com</t>
+  </si>
+  <si>
+    <t>寇雯茜</t>
+  </si>
+  <si>
+    <t>362321200008102721</t>
+  </si>
+  <si>
+    <t>18770399381</t>
+  </si>
+  <si>
+    <t>KOUWENXI@shu.edu.cn</t>
+  </si>
+  <si>
+    <t>刘畅</t>
+  </si>
+  <si>
+    <t>320322200106208615</t>
+  </si>
+  <si>
+    <t>理工大类</t>
+  </si>
+  <si>
+    <t>17502148043</t>
+  </si>
+  <si>
+    <t>84366672@qq.com</t>
+  </si>
+  <si>
+    <t>20200048</t>
+  </si>
+  <si>
+    <t>基于ResNet图像识别和CNN智能推荐的个性化垃圾分类系统</t>
+  </si>
+  <si>
+    <t>高珏、张博锋</t>
+  </si>
+  <si>
+    <t>人工智能应用</t>
+  </si>
+  <si>
+    <t>张曼曼</t>
+  </si>
+  <si>
+    <t>41030519981222302X</t>
+  </si>
+  <si>
+    <t>15136398386</t>
+  </si>
+  <si>
+    <t>782688229@qq.com</t>
+  </si>
+  <si>
+    <t>陈宇鑫</t>
+  </si>
+  <si>
+    <t>350625199812242031</t>
+  </si>
+  <si>
+    <t>18018590755</t>
+  </si>
+  <si>
+    <t>visajiandrevv@163.com</t>
+  </si>
+  <si>
+    <t>宋江</t>
+  </si>
+  <si>
+    <t>511324199907020675</t>
+  </si>
+  <si>
+    <t>15601843365</t>
+  </si>
+  <si>
+    <t>a934711092@shu.edu.cn</t>
+  </si>
+  <si>
+    <t>20200047</t>
+  </si>
+  <si>
+    <t>逃离那一天</t>
+  </si>
+  <si>
+    <t>上海电影学院</t>
+  </si>
+  <si>
+    <t>黄东晋</t>
+  </si>
+  <si>
+    <t>王怡妮</t>
+  </si>
+  <si>
+    <t>310104199810036027</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>数字媒体技术</t>
+  </si>
+  <si>
+    <t>电影学院影视工程系</t>
+  </si>
+  <si>
+    <t>13917154758</t>
+  </si>
+  <si>
+    <t>1362537723@qq.com</t>
+  </si>
+  <si>
+    <t>毛茂</t>
+  </si>
+  <si>
+    <t>51060319981123682X</t>
+  </si>
+  <si>
+    <t>大四</t>
+  </si>
+  <si>
+    <t>18101962839</t>
+  </si>
+  <si>
+    <t>1723908509@qq.com</t>
+  </si>
+  <si>
+    <t>曾子洋</t>
+  </si>
+  <si>
+    <t>360722199906010010</t>
+  </si>
+  <si>
+    <t>18018592783</t>
+  </si>
+  <si>
+    <t>1445787117@qq.com</t>
+  </si>
+  <si>
+    <t>20200046</t>
+  </si>
+  <si>
+    <t>绿卡卡</t>
+  </si>
+  <si>
+    <t>李成范</t>
+  </si>
+  <si>
+    <t>李佳星</t>
+  </si>
+  <si>
+    <t>510726199810251825</t>
+  </si>
+  <si>
+    <t>18021017153</t>
+  </si>
+  <si>
+    <t>2822937768@qq.com</t>
+  </si>
+  <si>
+    <t>黄姗</t>
+  </si>
+  <si>
+    <t>362502200006196420</t>
+  </si>
+  <si>
+    <t>18817286576</t>
+  </si>
+  <si>
+    <t>853873021@qq.com</t>
+  </si>
+  <si>
+    <t>胡丹妮</t>
+  </si>
+  <si>
+    <t>362202199912022324</t>
+  </si>
+  <si>
+    <t>广告学</t>
+  </si>
+  <si>
+    <t>新闻传播学院</t>
+  </si>
+  <si>
+    <t>18817297853</t>
+  </si>
+  <si>
+    <t>643489598@qq.com</t>
+  </si>
+  <si>
+    <t>20200045</t>
+  </si>
+  <si>
+    <t>体育场馆预约系统</t>
+  </si>
+  <si>
+    <t>朱文浩</t>
+  </si>
+  <si>
+    <t>Web网站设计</t>
+  </si>
+  <si>
+    <t>张素芬</t>
+  </si>
+  <si>
+    <t>36043020001225172X</t>
+  </si>
+  <si>
+    <t>电子信息工程</t>
+  </si>
+  <si>
+    <t>18307926136</t>
+  </si>
+  <si>
+    <t>zhangsufen1225@163.com</t>
+  </si>
+  <si>
+    <t>陈可茜</t>
+  </si>
+  <si>
+    <t>350500199812135620</t>
+  </si>
+  <si>
+    <t>13361898750</t>
+  </si>
+  <si>
+    <t>13361898750@163.com</t>
+  </si>
+  <si>
+    <t>屠云</t>
+  </si>
+  <si>
+    <t>31011320010618292X</t>
+  </si>
+  <si>
+    <t>18019389246</t>
+  </si>
+  <si>
+    <t>18019389246@163.com</t>
+  </si>
+  <si>
+    <t>20200044</t>
+  </si>
+  <si>
+    <t>指挥城市视角下无人机遥感倾斜摄影与BIM+3DGIS的时空信息方法研究</t>
+  </si>
+  <si>
+    <t>悉尼工商学院</t>
+  </si>
+  <si>
+    <t>喻钢</t>
+  </si>
+  <si>
+    <t>肖鸿</t>
+  </si>
+  <si>
+    <t>360731200001234839</t>
+  </si>
+  <si>
+    <t>信息管理与信息系统</t>
+  </si>
+  <si>
+    <t>18301962168</t>
+  </si>
+  <si>
+    <t>2031356566@qq.com</t>
+  </si>
+  <si>
+    <t>郑普若</t>
+  </si>
+  <si>
+    <t>14010919980319051x</t>
+  </si>
+  <si>
+    <t>18018591280</t>
+  </si>
+  <si>
+    <t>741777960@qq.com</t>
+  </si>
+  <si>
+    <t>金雨璁</t>
+  </si>
+  <si>
+    <t>520201199810226029</t>
+  </si>
+  <si>
+    <t>18018590707</t>
+  </si>
+  <si>
+    <t>jyc_kx@163.com</t>
+  </si>
+  <si>
+    <t>20200043</t>
+  </si>
+  <si>
+    <t>智能盾构系统</t>
+  </si>
+  <si>
+    <t>王圣予</t>
+  </si>
+  <si>
+    <t>310114199811010817</t>
+  </si>
+  <si>
+    <t>17317634795</t>
+  </si>
+  <si>
+    <t>baso4233@shu.edu.cn</t>
+  </si>
+  <si>
+    <t>张润天</t>
+  </si>
+  <si>
+    <t>310113199809050813</t>
+  </si>
+  <si>
+    <t>13816351243</t>
+  </si>
+  <si>
+    <t>pwzb12@163.com</t>
+  </si>
+  <si>
+    <t>陈宏宇</t>
+  </si>
+  <si>
+    <t>532101199712182454</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>18817204046</t>
+  </si>
+  <si>
+    <t>chenhy@i.shu.edu.cn</t>
+  </si>
+  <si>
+    <t>20200042</t>
+  </si>
+  <si>
+    <t>基于爬虫的房屋信息可视化与分析系统</t>
+  </si>
+  <si>
+    <t>徐宝宇</t>
+  </si>
+  <si>
+    <t>肖庆</t>
+  </si>
+  <si>
+    <t>362421199910120019</t>
+  </si>
+  <si>
+    <t>18018590260</t>
+  </si>
+  <si>
+    <t>381623413@qq.com</t>
+  </si>
+  <si>
+    <t>尹路超</t>
+  </si>
+  <si>
+    <t>13042819991222003X</t>
+  </si>
+  <si>
+    <t>18021013010</t>
+  </si>
+  <si>
+    <t>mryinlc@qq.com</t>
+  </si>
+  <si>
+    <t>洪韬</t>
+  </si>
+  <si>
+    <t>34082620000214641x</t>
+  </si>
+  <si>
+    <t>18297420903</t>
+  </si>
+  <si>
+    <t>2356051642@qq.com</t>
+  </si>
+  <si>
+    <t>20200041</t>
+  </si>
+  <si>
+    <t>基于带Attention Mechanism的GRU的海平面海温预测微信小程序</t>
+  </si>
+  <si>
+    <t>徐凌宇、余洁</t>
+  </si>
+  <si>
+    <t>金琦</t>
+  </si>
+  <si>
+    <t>310104199908154013</t>
+  </si>
+  <si>
+    <t>计算机科学与技术系</t>
+  </si>
+  <si>
+    <t>18930520815</t>
+  </si>
+  <si>
+    <t>ricksurprise@163.com</t>
+  </si>
+  <si>
+    <t>翟鸣</t>
+  </si>
+  <si>
+    <t>310103199812017026</t>
+  </si>
+  <si>
+    <t>18321550270</t>
+  </si>
+  <si>
+    <t>mf20100121@126.com</t>
+  </si>
+  <si>
+    <t>金一帆</t>
+  </si>
+  <si>
+    <t>310225199901063212</t>
+  </si>
+  <si>
+    <t>15021583422</t>
+  </si>
+  <si>
+    <t>576244779@qq.com</t>
+  </si>
+  <si>
+    <t>20200019</t>
+  </si>
+  <si>
+    <t>基于深度学习的古诗词教育系统</t>
+  </si>
+  <si>
+    <t>彭俊杰</t>
+  </si>
+  <si>
+    <t>汤玮</t>
+  </si>
+  <si>
+    <t>340803199907292788</t>
+  </si>
+  <si>
+    <t>18817296038</t>
+  </si>
+  <si>
+    <t>nanbzy@sina.com</t>
+  </si>
+  <si>
+    <t>徐霜玉</t>
+  </si>
+  <si>
+    <t>520102199906283424</t>
+  </si>
+  <si>
+    <t>14785481094</t>
+  </si>
+  <si>
+    <t>14785481094@163.com</t>
+  </si>
+  <si>
+    <t>郑晓虎</t>
+  </si>
+  <si>
+    <t>411522199903064237</t>
+  </si>
+  <si>
+    <t>18817297629</t>
+  </si>
+  <si>
+    <t>932637981@qq.com</t>
+  </si>
+  <si>
+    <t>20200020</t>
+  </si>
+  <si>
+    <t>基于知识图谱的问答系统</t>
+  </si>
+  <si>
+    <t>计算机科学与工程学院</t>
+  </si>
+  <si>
+    <t>刘炜</t>
+  </si>
+  <si>
+    <t>丁喻</t>
+  </si>
+  <si>
+    <t>310115199905058615</t>
+  </si>
+  <si>
+    <t>18017616698</t>
+  </si>
+  <si>
+    <t>dingyu20170721@outlook.com</t>
+  </si>
+  <si>
+    <t>葛鹏飞</t>
+  </si>
+  <si>
+    <t>411422199906020656</t>
+  </si>
+  <si>
+    <t>13838160313</t>
+  </si>
+  <si>
+    <t>376699478@qq.com</t>
+  </si>
+  <si>
+    <t>邵芃堃</t>
+  </si>
+  <si>
+    <t>140109199903230013</t>
+  </si>
+  <si>
+    <t>18018590036</t>
+  </si>
+  <si>
+    <t>873132028@qq.com</t>
+  </si>
+  <si>
+    <t>20200021</t>
+  </si>
+  <si>
+    <t>AR情境识字</t>
+  </si>
+  <si>
+    <t>黄妍</t>
+  </si>
+  <si>
+    <t>310228199908275823</t>
+  </si>
+  <si>
+    <t>13917084658</t>
+  </si>
+  <si>
+    <t>mico1950@163.com</t>
+  </si>
+  <si>
+    <t>蒋帅</t>
+  </si>
+  <si>
+    <t>340881200007150228</t>
+  </si>
+  <si>
+    <t>18056908080</t>
+  </si>
+  <si>
+    <t>2139558379@qq.com</t>
+  </si>
+  <si>
+    <t>张文亮</t>
+  </si>
+  <si>
+    <t>341224200011020224</t>
+  </si>
+  <si>
+    <t>18817286357</t>
+  </si>
+  <si>
+    <t>18817286357@163.com</t>
+  </si>
+  <si>
+    <t>20200022</t>
+  </si>
+  <si>
+    <t>绿行——基于深度学习与全景漫游的多功能垃圾分类移动端APP</t>
+  </si>
+  <si>
+    <t>李晓强</t>
+  </si>
+  <si>
+    <t>艾香伶</t>
+  </si>
+  <si>
+    <t>500112199901110865</t>
+  </si>
+  <si>
+    <t>18018590463</t>
+  </si>
+  <si>
+    <t>xlleai@163.com</t>
+  </si>
+  <si>
+    <t>郭品学</t>
+  </si>
+  <si>
+    <t>130481199807170036</t>
+  </si>
+  <si>
+    <t>18817287116</t>
+  </si>
+  <si>
+    <t>937370152@qq.com</t>
+  </si>
+  <si>
+    <t>13361838750</t>
+  </si>
+  <si>
+    <t>13361838750@163.com</t>
+  </si>
+  <si>
+    <t>20200023</t>
+  </si>
+  <si>
+    <t>橙子时钟——基于机器学习的日程管理系统</t>
+  </si>
+  <si>
+    <t>方昱春</t>
+  </si>
+  <si>
+    <t>刘健</t>
+  </si>
+  <si>
+    <t>360121199904151478</t>
+  </si>
+  <si>
+    <t>17721051756</t>
+  </si>
+  <si>
+    <t>316056106@qq.com</t>
+  </si>
+  <si>
+    <t>黄静雯</t>
+  </si>
+  <si>
+    <t>310115200004048327</t>
+  </si>
+  <si>
+    <t>13761154578</t>
+  </si>
+  <si>
+    <t>2452516935@qq.com</t>
+  </si>
+  <si>
+    <t>付浪</t>
+  </si>
+  <si>
+    <t>522401199703213217</t>
+  </si>
+  <si>
+    <t>15797805667</t>
+  </si>
+  <si>
+    <t>178049845@qq.com</t>
+  </si>
+  <si>
+    <t>20200024</t>
+  </si>
+  <si>
+    <t>Go党建---党建学习综合服务平台</t>
+  </si>
+  <si>
+    <t>高洪皓、方昱春</t>
+  </si>
+  <si>
+    <t>魏徐峻</t>
+  </si>
+  <si>
+    <t>360702199805100011</t>
+  </si>
+  <si>
+    <t>19821829763</t>
+  </si>
+  <si>
+    <t>191861272@qq.com</t>
+  </si>
+  <si>
+    <t>陈艺元</t>
+  </si>
+  <si>
+    <t>511302199811020031</t>
+  </si>
+  <si>
+    <t>15228155317</t>
+  </si>
+  <si>
+    <t>1912496324@qq.com</t>
+  </si>
+  <si>
+    <t>吴帆</t>
+  </si>
+  <si>
+    <t>652301199903095247</t>
+  </si>
+  <si>
+    <t>18621011208</t>
+  </si>
+  <si>
+    <t>805180533@qq.com</t>
+  </si>
+  <si>
+    <t>20200025</t>
+  </si>
+  <si>
+    <t>量聚</t>
+  </si>
+  <si>
+    <t>高洪皓</t>
+  </si>
+  <si>
+    <t>邱泳文</t>
+  </si>
+  <si>
+    <t>450981199610241111</t>
+  </si>
+  <si>
+    <t>18800201923</t>
+  </si>
+  <si>
+    <t>2766704834@qq.com</t>
+  </si>
+  <si>
+    <t>20200026</t>
+  </si>
+  <si>
+    <t>"智小盖"智能卫生控制系统</t>
+  </si>
+  <si>
+    <t>丁雪海 高洪皓</t>
+  </si>
+  <si>
+    <t>廖颂豪</t>
+  </si>
+  <si>
+    <t>310109200001243517</t>
+  </si>
+  <si>
+    <t>13817707006</t>
+  </si>
+  <si>
+    <t>1016368602@qq.com</t>
+  </si>
+  <si>
+    <t>20200027</t>
+  </si>
+  <si>
+    <t>一流学科大数据共享平台</t>
+  </si>
+  <si>
+    <t>贾梦洁</t>
+  </si>
+  <si>
+    <t>452229199911121445</t>
+  </si>
+  <si>
+    <t>18277102479</t>
+  </si>
+  <si>
+    <t>jmj988@qq.com</t>
+  </si>
+  <si>
+    <t>余越</t>
+  </si>
+  <si>
+    <t>310230199903232324</t>
+  </si>
+  <si>
+    <t>18800315085</t>
+  </si>
+  <si>
+    <t>2485444376@qq.com</t>
+  </si>
+  <si>
+    <t>曹新天</t>
+  </si>
+  <si>
+    <t>310225199812206613</t>
+  </si>
+  <si>
+    <t>13482275812</t>
+  </si>
+  <si>
+    <t>876279501@qq.com</t>
+  </si>
+  <si>
+    <t>20200028</t>
+  </si>
+  <si>
+    <t>基于深度学习的中文机器阅读理解</t>
+  </si>
+  <si>
+    <t>何济原</t>
+  </si>
+  <si>
+    <t>530402199902130015</t>
+  </si>
+  <si>
+    <t>18817272671</t>
+  </si>
+  <si>
+    <t>1379276144@qq.com</t>
+  </si>
+  <si>
+    <t>张煜妍</t>
+  </si>
+  <si>
+    <t>360302200004082523</t>
+  </si>
+  <si>
+    <t>18817287310</t>
+  </si>
+  <si>
+    <t>907430774@qq.com</t>
+  </si>
+  <si>
+    <t>20200029</t>
+  </si>
+  <si>
+    <t>基于nbiot的UPark智慧泊车系统</t>
+  </si>
+  <si>
+    <t>吴一凡</t>
+  </si>
+  <si>
+    <t>320925200012190030</t>
+  </si>
+  <si>
+    <t>18918960999</t>
+  </si>
+  <si>
+    <t>wuyifan@189.cn</t>
+  </si>
+  <si>
+    <t>20200030</t>
+  </si>
+  <si>
+    <t>安全教育系列微课</t>
+  </si>
+  <si>
+    <t>上海大学美术学院</t>
+  </si>
+  <si>
+    <t>邓泳澜</t>
+  </si>
+  <si>
+    <t>500107200006063120</t>
+  </si>
+  <si>
+    <t>城乡规划</t>
+  </si>
+  <si>
+    <t>美术学院</t>
+  </si>
+  <si>
+    <t>18983282913</t>
+  </si>
+  <si>
+    <t>18983282913@163.com</t>
+  </si>
+  <si>
+    <t>牛紫烨</t>
+  </si>
+  <si>
+    <t>530302200001280323</t>
+  </si>
+  <si>
+    <t>生物医学工程</t>
+  </si>
+  <si>
+    <t>18469043370</t>
+  </si>
+  <si>
+    <t>1871989653@qq.com</t>
+  </si>
+  <si>
+    <t>20200031</t>
+  </si>
+  <si>
+    <t>上海大学写作中心系统</t>
+  </si>
+  <si>
+    <t>谢鹏</t>
+  </si>
+  <si>
+    <t>330124200004050013</t>
+  </si>
+  <si>
+    <t>18019105125</t>
+  </si>
+  <si>
+    <t>13567172019@163.com</t>
+  </si>
+  <si>
+    <t>陈科宇</t>
+  </si>
+  <si>
+    <t>330283199909037219</t>
+  </si>
+  <si>
+    <t>13567475027</t>
+  </si>
+  <si>
+    <t>cky3702@163.com</t>
+  </si>
+  <si>
+    <t>吴皓宇</t>
+  </si>
+  <si>
+    <t>321084200009212624</t>
+  </si>
+  <si>
+    <t>18800311259</t>
+  </si>
+  <si>
+    <t>yukiwhy0031@163.com</t>
+  </si>
+  <si>
+    <t>20200032</t>
+  </si>
+  <si>
+    <t>声入人心</t>
+  </si>
+  <si>
+    <t>张莹</t>
+  </si>
+  <si>
+    <t>海扬</t>
+  </si>
+  <si>
+    <t>410302199812250029</t>
+  </si>
+  <si>
+    <t>18021020702</t>
+  </si>
+  <si>
+    <t>739460252@qq.com</t>
+  </si>
+  <si>
+    <t>肖婕妤</t>
+  </si>
+  <si>
+    <t>430523200003202328</t>
+  </si>
+  <si>
+    <t>18021026997</t>
+  </si>
+  <si>
+    <t>1172811321@qq.com</t>
+  </si>
+  <si>
+    <t>马瑞浠</t>
+  </si>
+  <si>
+    <t>510402199904131448</t>
+  </si>
+  <si>
+    <t>18281233011</t>
+  </si>
+  <si>
+    <t>444177145@qq.com</t>
+  </si>
+  <si>
+    <t>20200033</t>
+  </si>
+  <si>
+    <t>机动车服务预约系统</t>
+  </si>
+  <si>
+    <t>李颖</t>
+  </si>
+  <si>
+    <t>李奕旸</t>
+  </si>
+  <si>
+    <t>31010719990710091X</t>
+  </si>
+  <si>
+    <t>13524817175</t>
+  </si>
+  <si>
+    <t>2535949465@qq.com</t>
+  </si>
+  <si>
+    <t>邹文冲</t>
+  </si>
+  <si>
+    <t>43040819991107251X</t>
+  </si>
+  <si>
+    <t>19821879773</t>
+  </si>
+  <si>
+    <t>1157080519@qq.com</t>
+  </si>
+  <si>
+    <t>孟伟光</t>
+  </si>
+  <si>
+    <t>341227200001150016</t>
+  </si>
+  <si>
+    <t>18817284989</t>
+  </si>
+  <si>
+    <t>976537406@qq.com</t>
+  </si>
+  <si>
+    <t>20200034</t>
+  </si>
+  <si>
+    <t>情陷城市</t>
+  </si>
+  <si>
+    <t>张晓蓉</t>
+  </si>
+  <si>
+    <t>周婧彦</t>
+  </si>
+  <si>
+    <t>310230199905154163</t>
+  </si>
+  <si>
+    <t>数字媒体与技术</t>
+  </si>
+  <si>
+    <t>13601786460</t>
+  </si>
+  <si>
+    <t>2402548450@qq.com</t>
+  </si>
+  <si>
+    <t>田乐嫣</t>
+  </si>
+  <si>
+    <t>510524199909032821</t>
+  </si>
+  <si>
+    <t>13629048377</t>
+  </si>
+  <si>
+    <t>2524196239@qq.com</t>
+  </si>
+  <si>
+    <t>20200035</t>
+  </si>
+  <si>
+    <t>3D贪吃蛇及其寻路算法设计</t>
+  </si>
+  <si>
+    <t>理学院</t>
+  </si>
+  <si>
+    <t>洪浩天</t>
+  </si>
+  <si>
+    <t>31010420020105441X</t>
+  </si>
+  <si>
+    <t>电子信息科学与技术</t>
+  </si>
+  <si>
+    <t>15800737097</t>
+  </si>
+  <si>
+    <t>harryhht@shu.edu.cn</t>
+  </si>
+  <si>
+    <t>邹雨恺</t>
+  </si>
+  <si>
+    <t>31010820010619281X</t>
+  </si>
+  <si>
+    <t>数学与应用数学</t>
+  </si>
+  <si>
+    <t>18217132928</t>
+  </si>
+  <si>
+    <t>yukaizou@shu.edu.cn</t>
+  </si>
+  <si>
+    <t>20200036</t>
+  </si>
+  <si>
+    <t>基于深度学习的魔方识别与解决</t>
+  </si>
+  <si>
+    <t>通信与信息工程</t>
+  </si>
+  <si>
+    <t>周思科</t>
+  </si>
+  <si>
+    <t>330881200008070033</t>
+  </si>
+  <si>
+    <t>18964130440</t>
+  </si>
+  <si>
+    <t>1913394131@qq.com</t>
+  </si>
+  <si>
+    <t>邓松</t>
+  </si>
+  <si>
+    <t>510402200011235114</t>
+  </si>
+  <si>
+    <t>18081716370</t>
+  </si>
+  <si>
+    <t>1654289442@qq.com</t>
+  </si>
+  <si>
+    <t>20200037</t>
+  </si>
+  <si>
+    <t>奔跑吧SHUer</t>
+  </si>
+  <si>
+    <t>沈俊</t>
+  </si>
+  <si>
+    <t>邓泽远</t>
+  </si>
+  <si>
+    <t>310110199903250513</t>
+  </si>
+  <si>
+    <t>15618348169</t>
+  </si>
+  <si>
+    <t>15618348169@163.com</t>
+  </si>
+  <si>
+    <t>林申</t>
+  </si>
+  <si>
+    <t>330402199902071521</t>
+  </si>
+  <si>
+    <t>869205635@qq.com</t>
+  </si>
+  <si>
+    <t>18916507879</t>
+  </si>
+  <si>
+    <t>20200038</t>
+  </si>
+  <si>
+    <t>中国历史人物关系可视化图谱</t>
+  </si>
+  <si>
+    <t>谢志峰</t>
+  </si>
+  <si>
+    <t>陈子凡</t>
+  </si>
+  <si>
+    <t>360726199912210030</t>
+  </si>
+  <si>
+    <t>18817296539</t>
+  </si>
+  <si>
+    <t>tuxinghuan@outlook.com</t>
+  </si>
+  <si>
+    <t>施博譞</t>
+  </si>
+  <si>
+    <t>140107199901210614</t>
+  </si>
+  <si>
+    <t>18018590121</t>
+  </si>
+  <si>
+    <t>1308710560@qq.com</t>
+  </si>
+  <si>
+    <t>20200039</t>
+  </si>
+  <si>
+    <t>会议室预约系统</t>
+  </si>
+  <si>
+    <t>张喧石</t>
+  </si>
+  <si>
+    <t>310113199910313614</t>
+  </si>
+  <si>
+    <t>13564391569</t>
+  </si>
+  <si>
+    <t>1016668619@qq.com</t>
+  </si>
+  <si>
+    <t>丁海鹏</t>
+  </si>
+  <si>
+    <t>331022200008270972</t>
+  </si>
+  <si>
+    <t>18616117313</t>
+  </si>
+  <si>
+    <t>247805431@qq.com</t>
+  </si>
+  <si>
+    <t>20200040</t>
+  </si>
+  <si>
+    <t>上海大学心理辅导中心系统</t>
+  </si>
+  <si>
+    <t>乐紫莹</t>
+  </si>
+  <si>
+    <t>330902199905277223</t>
+  </si>
+  <si>
+    <t>17721051572</t>
+  </si>
+  <si>
+    <t>1055226339@qq.com</t>
+  </si>
+  <si>
+    <t>陈怡莹</t>
+  </si>
+  <si>
+    <t>31023019990331002x</t>
+  </si>
+  <si>
+    <t>15000601793</t>
+  </si>
+  <si>
+    <t>1363412911@qq.com</t>
+  </si>
+  <si>
+    <t>郑丽娟</t>
+  </si>
+  <si>
+    <t>330821199812076880</t>
+  </si>
+  <si>
+    <t>金融</t>
+  </si>
+  <si>
+    <t>经济学院</t>
+  </si>
+  <si>
+    <t>15924071866</t>
+  </si>
+  <si>
+    <t>2764911976@qq.com</t>
+  </si>
+  <si>
+    <t>多媒体制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200077</t>
+  </si>
+  <si>
+    <t>走进极地医学</t>
+  </si>
+  <si>
+    <t>基础医学院</t>
+  </si>
+  <si>
+    <t>郑奋</t>
+  </si>
+  <si>
+    <t>王先钰</t>
+  </si>
+  <si>
+    <t>23081199911261612</t>
+  </si>
+  <si>
+    <t>公共（卫生）事业管理</t>
+  </si>
+  <si>
+    <t>18721888192</t>
+  </si>
+  <si>
+    <t>2806252104@qq.com</t>
+  </si>
+  <si>
+    <t>郑岩康</t>
+  </si>
+  <si>
+    <t>412726199802245490</t>
+  </si>
+  <si>
+    <t>15738612862</t>
+  </si>
+  <si>
+    <t>1191300431@qq.com</t>
+  </si>
+  <si>
+    <t>钟佳琦</t>
+  </si>
+  <si>
+    <t>362401199907230027</t>
+  </si>
+  <si>
+    <t>护理</t>
+  </si>
+  <si>
+    <t>13564282959</t>
+  </si>
+  <si>
+    <t>821339377@qq.com</t>
+  </si>
+  <si>
+    <t>20200076</t>
+  </si>
+  <si>
+    <t>走进极地冰河—常见状况的预防与处理科普</t>
+  </si>
+  <si>
+    <t>230811199911261612</t>
+  </si>
+  <si>
+    <t>20200075</t>
+  </si>
+  <si>
+    <t>探寻京剧艺术的魅力</t>
+  </si>
+  <si>
+    <t>冷昱</t>
+  </si>
+  <si>
+    <t>510704199902260050</t>
+  </si>
+  <si>
+    <t>13122068496</t>
+  </si>
+  <si>
+    <t>1044655034@qq.com</t>
+  </si>
+  <si>
+    <t>汤恩培</t>
+  </si>
+  <si>
+    <t>310226199805154516</t>
+  </si>
+  <si>
+    <t>18721241045</t>
+  </si>
+  <si>
+    <t>x654854759@163.com</t>
+  </si>
+  <si>
+    <t>牛世雨</t>
+  </si>
+  <si>
+    <t>410421200006270033</t>
+  </si>
+  <si>
+    <t>15738162583</t>
+  </si>
+  <si>
+    <t>1243486860@qq.com</t>
+  </si>
+  <si>
+    <t>20200074</t>
+  </si>
+  <si>
+    <t>BLS成人基础急救辅助学习系统</t>
+  </si>
+  <si>
+    <t>张敬涛</t>
+  </si>
+  <si>
+    <t>370306199907061012</t>
+  </si>
+  <si>
+    <t>17705333492</t>
+  </si>
+  <si>
+    <t>1125077018@qq.com</t>
+  </si>
+  <si>
+    <t>王雨</t>
+  </si>
+  <si>
+    <t>412722199811010057</t>
+  </si>
+  <si>
+    <t>18721888767</t>
+  </si>
+  <si>
+    <t>3572687417@qq.com</t>
+  </si>
+  <si>
+    <t>贾镇豪</t>
+  </si>
+  <si>
+    <t>410602200001013574</t>
+  </si>
+  <si>
+    <t>18530396882</t>
+  </si>
+  <si>
+    <t>1157419120@qq.com</t>
+  </si>
+  <si>
+    <t>20200072</t>
+  </si>
+  <si>
+    <t>20200069</t>
+  </si>
+  <si>
+    <t>20200068</t>
+  </si>
+  <si>
+    <t>药&amp;#8226;拾--基于VR技术的中草药学习平台</t>
+  </si>
+  <si>
+    <t>吴雨龙</t>
+  </si>
+  <si>
+    <t>350502200011280519</t>
+  </si>
+  <si>
+    <t>生物技术四年制</t>
+  </si>
+  <si>
+    <t>18959951103</t>
+  </si>
+  <si>
+    <t>2427432284@qq.com</t>
+  </si>
+  <si>
+    <t>杨婧</t>
+  </si>
+  <si>
+    <t>530627200104074120</t>
+  </si>
+  <si>
+    <t>护理学四年制</t>
+  </si>
+  <si>
+    <t>18469239885</t>
+  </si>
+  <si>
+    <t>2903225740@qq.com</t>
+  </si>
+  <si>
+    <t>邓博文</t>
+  </si>
+  <si>
+    <t>511621199908270315</t>
+  </si>
+  <si>
+    <t>18085009373</t>
+  </si>
+  <si>
+    <t>412332542@qq.com</t>
+  </si>
+  <si>
+    <t>20200067</t>
+  </si>
+  <si>
+    <t>虚拟体感交互式康复训练系统</t>
+  </si>
+  <si>
+    <t>徐梁</t>
+  </si>
+  <si>
+    <t>152201199810143015</t>
+  </si>
+  <si>
+    <t>公共卫生事业管理</t>
+  </si>
+  <si>
+    <t>17321271205</t>
+  </si>
+  <si>
+    <t>870273299@qq.com</t>
+  </si>
+  <si>
+    <t>赵文峰</t>
+  </si>
+  <si>
+    <t>370684199810260010</t>
+  </si>
+  <si>
+    <t>13688679056</t>
+  </si>
+  <si>
+    <t>378340979@qq.com</t>
+  </si>
+  <si>
+    <t>孙子洋</t>
+  </si>
+  <si>
+    <t>65010219990812651x</t>
+  </si>
+  <si>
+    <t>医学影像学</t>
+  </si>
+  <si>
+    <t>13764565043</t>
+  </si>
+  <si>
+    <t>13764565043@163.com</t>
+  </si>
+  <si>
+    <t>20200064</t>
+  </si>
+  <si>
+    <t>基于虚拟交互的体感康复系统</t>
+  </si>
+  <si>
+    <t>870273299·qq.com</t>
+  </si>
+  <si>
+    <t>20200063</t>
+  </si>
+  <si>
+    <t>药&amp;#8226;拾--基于VR技术的中草药学习库</t>
+  </si>
+  <si>
+    <t>20200062</t>
+  </si>
+  <si>
+    <t>基于3D虚拟现实技术的智能情绪管理系统</t>
+  </si>
+  <si>
+    <t>林佳沭</t>
+  </si>
+  <si>
+    <t>232301200008070315</t>
+  </si>
+  <si>
+    <t>临床医学五年制</t>
+  </si>
+  <si>
+    <t>19921315161</t>
+  </si>
+  <si>
+    <t>1295155475@qq.com</t>
+  </si>
+  <si>
+    <t>王皓珏</t>
+  </si>
+  <si>
+    <t>522101199908132035</t>
+  </si>
+  <si>
+    <t>13985260015</t>
+  </si>
+  <si>
+    <t>1205999012@qq.com</t>
+  </si>
+  <si>
+    <t>20200060</t>
+  </si>
+  <si>
+    <t>战场救护虚拟仿真系统</t>
+  </si>
+  <si>
+    <t>沈力炀</t>
+  </si>
+  <si>
+    <t>330106199909174012</t>
+  </si>
+  <si>
+    <t>19916935669</t>
+  </si>
+  <si>
+    <t>826239584@qq.com</t>
+  </si>
+  <si>
+    <t>陈宓远</t>
+  </si>
+  <si>
+    <t>110105199908205430</t>
+  </si>
+  <si>
+    <t>18721829261</t>
+  </si>
+  <si>
+    <t>928467461@qq.com</t>
+  </si>
+  <si>
+    <t>付琛</t>
+  </si>
+  <si>
+    <t>150105200004117318</t>
+  </si>
+  <si>
+    <t>麻醉学</t>
+  </si>
+  <si>
+    <t>18019075009</t>
+  </si>
+  <si>
+    <t>18019075009@163.com</t>
+  </si>
+  <si>
+    <t>20200239</t>
+  </si>
+  <si>
+    <t>健康小秘书</t>
+  </si>
+  <si>
+    <t>药学院</t>
+  </si>
+  <si>
+    <t>徐志平</t>
+  </si>
+  <si>
+    <t>贾宁</t>
+  </si>
+  <si>
+    <t>620422200201026429</t>
+  </si>
+  <si>
+    <t>药学</t>
+  </si>
+  <si>
+    <t>18893021445</t>
+  </si>
+  <si>
+    <t>19301030118@fudan.edu.cn</t>
+  </si>
+  <si>
+    <t>20200238</t>
+  </si>
+  <si>
+    <t>“谢小白”人工情感交互算法设计</t>
+  </si>
+  <si>
+    <t>航空航天系</t>
+  </si>
+  <si>
+    <t>谢锡麟</t>
+  </si>
+  <si>
+    <t>朱爽</t>
+  </si>
+  <si>
+    <t>320705199909251529</t>
+  </si>
+  <si>
+    <t>社会学</t>
+  </si>
+  <si>
+    <t>社会发展与公共政策学院</t>
+  </si>
+  <si>
+    <t>18300290056@fudan.edu.cn</t>
+  </si>
+  <si>
+    <t>20200237</t>
+  </si>
+  <si>
+    <t>智能诊断小助手</t>
+  </si>
+  <si>
+    <t>基础医学院、计算机科学技术学院</t>
+  </si>
+  <si>
+    <t>曾剑平</t>
+  </si>
+  <si>
+    <t>黄侃</t>
+  </si>
+  <si>
+    <t>330281199910110011</t>
+  </si>
+  <si>
+    <t>临床医学八年制</t>
+  </si>
+  <si>
+    <t>18301050178@fudan.edu.cn</t>
+  </si>
+  <si>
+    <t>张聪</t>
+  </si>
+  <si>
+    <t>430611199911035558</t>
+  </si>
+  <si>
+    <t>信息安全</t>
+  </si>
+  <si>
+    <t>计算机科学与技术学院</t>
+  </si>
+  <si>
+    <t>fdjwc.cn@gmail.com</t>
+  </si>
+  <si>
+    <t>高文强</t>
+  </si>
+  <si>
+    <t>140602199902208511</t>
+  </si>
+  <si>
+    <t>wqgao17@fudan.edu.cn</t>
+  </si>
+  <si>
+    <t>20200236</t>
+  </si>
+  <si>
+    <t>数据驱动验证物理方程</t>
+  </si>
+  <si>
+    <t>信息科学与工程学院</t>
+  </si>
+  <si>
+    <t>付海洋</t>
+  </si>
+  <si>
+    <t>梁舒煜</t>
+  </si>
+  <si>
+    <t>320684199910205941</t>
+  </si>
+  <si>
+    <t>18307130298@fudan.edu.cn</t>
+  </si>
+  <si>
+    <t>杜梦飞</t>
+  </si>
+  <si>
+    <t>411002200008211512</t>
+  </si>
+  <si>
+    <t>数据科学与大数据技术</t>
+  </si>
+  <si>
+    <t>大数据学院</t>
+  </si>
+  <si>
+    <t>18307130148@fudan.edu.cn</t>
+  </si>
+  <si>
+    <t>朱哲渊</t>
+  </si>
+  <si>
+    <t>320684200008190031</t>
+  </si>
+  <si>
+    <t>物理学</t>
+  </si>
+  <si>
+    <t>物理学院</t>
+  </si>
+  <si>
+    <t>18307110142@fudan.edu.cn</t>
+  </si>
+  <si>
+    <t>20200235</t>
+  </si>
+  <si>
+    <t>虚幻星空</t>
+  </si>
+  <si>
+    <t>法学院</t>
+  </si>
+  <si>
+    <t>涂程佳</t>
+  </si>
+  <si>
+    <t>310107200002145326</t>
+  </si>
+  <si>
+    <t>法学</t>
+  </si>
+  <si>
+    <t>18300270038@fudan.edu.cn</t>
+  </si>
+  <si>
+    <t>20200234</t>
+  </si>
+  <si>
+    <t>校园宠物网</t>
+  </si>
+  <si>
+    <t>数学科学学院</t>
+  </si>
+  <si>
+    <t>符玄龙</t>
+  </si>
+  <si>
+    <t>吴镇宇</t>
+  </si>
+  <si>
+    <t>511303200010300019</t>
+  </si>
+  <si>
+    <t>理论与应用力学</t>
+  </si>
+  <si>
+    <t>19300290059@fudan.edu.cn</t>
+  </si>
+  <si>
+    <t>Link Up(“不咕”)——小组任务实时协作平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Web应用与开发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -22927,7 +25293,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="数据透视表3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="38">
     <pivotField dataField="1" showAll="0"/>
@@ -23081,6 +25447,147 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E0830F02-95DC-40FC-B1E4-222704563BB3}" name="表1" displayName="表1" ref="A1:AL40" totalsRowShown="0">
+  <autoFilter ref="A1:AL40" xr:uid="{E0830F02-95DC-40FC-B1E4-222704563BB3}"/>
+  <tableColumns count="38">
+    <tableColumn id="1" xr3:uid="{583336F1-E0E0-4212-90D1-B4ED98047FA3}" name="报名号_x000a_（后期产生）"/>
+    <tableColumn id="2" xr3:uid="{573F9BD8-2453-4B03-8530-594E16992318}" name="作品名称"/>
+    <tableColumn id="3" xr3:uid="{DAEC4900-65BB-40CC-9B5D-DF4A2B5D9587}" name="学校"/>
+    <tableColumn id="4" xr3:uid="{BA3FC8B1-DAFF-4C01-99C1-CF57BFFC4F45}" name="学院"/>
+    <tableColumn id="5" xr3:uid="{F5D1A6D4-B562-4E46-9E26-188D96C0287D}" name="指导老师"/>
+    <tableColumn id="6" xr3:uid="{E4CD8229-39A7-40AD-B31B-C46546BFE866}" name="作品小类别"/>
+    <tableColumn id="7" xr3:uid="{09C6A7E8-78D9-40FB-A62C-2AE40593DCED}" name="学生1"/>
+    <tableColumn id="8" xr3:uid="{31E24314-F56E-4D70-98B2-4F80F3BC3BBD}" name="身份证1"/>
+    <tableColumn id="9" xr3:uid="{AFF37B27-BA71-414E-AA61-E722A320E76A}" name="年级1"/>
+    <tableColumn id="10" xr3:uid="{F30F5013-E401-4F1C-AA4F-CCF969C2CB55}" name="年龄1"/>
+    <tableColumn id="11" xr3:uid="{FC2A72B5-9069-4F05-9616-6F5D1AB3EEE8}" name="专业1"/>
+    <tableColumn id="12" xr3:uid="{BF3D21C6-7F69-4C93-8474-1898FA481928}" name="学院1"/>
+    <tableColumn id="13" xr3:uid="{C54D13C6-7980-4356-9166-48F3B21E6AE7}" name="电话1"/>
+    <tableColumn id="14" xr3:uid="{4BDA392D-FEB8-42C2-A3C7-8810D82FD945}" name="邮箱1"/>
+    <tableColumn id="15" xr3:uid="{81A70672-E0F8-44A8-9795-CCAE22154802}" name="学生2"/>
+    <tableColumn id="16" xr3:uid="{BC16CD88-B2D2-44FF-B3D7-595B22F8E1A4}" name="身份证2"/>
+    <tableColumn id="17" xr3:uid="{86D40DA6-72B0-4A27-BB3F-15FD8B095097}" name="年级2"/>
+    <tableColumn id="18" xr3:uid="{33B703C0-4D07-4F36-925F-83E32A66537F}" name="年龄2"/>
+    <tableColumn id="19" xr3:uid="{327F02B5-5659-47F2-ACD9-38B746F9AE7A}" name="专业2"/>
+    <tableColumn id="20" xr3:uid="{D0DE7B83-0F64-4C2C-BF99-F11A3A8D74E1}" name="学院2"/>
+    <tableColumn id="21" xr3:uid="{B4BD3342-9CE4-405A-A68F-C30A94A1E999}" name="电话2"/>
+    <tableColumn id="22" xr3:uid="{70CF394D-6EAD-4778-98E7-F505922FE951}" name="邮箱2"/>
+    <tableColumn id="23" xr3:uid="{E9FFC14C-25F2-43DD-BB8F-A90206E409C9}" name="学生3"/>
+    <tableColumn id="24" xr3:uid="{6FE3D477-C784-45C5-9DC7-D1D43785372D}" name="身份证3"/>
+    <tableColumn id="25" xr3:uid="{6FCE8763-F531-4C61-9B27-79C3A1ED9F3D}" name="年级3"/>
+    <tableColumn id="26" xr3:uid="{2AF8598C-B48C-4FA1-A41B-414D1CD965BA}" name="年龄3"/>
+    <tableColumn id="27" xr3:uid="{A219FE23-97D6-429B-8478-A9592AD7460C}" name="专业3"/>
+    <tableColumn id="28" xr3:uid="{5D63A3B6-D495-407E-8FC0-23F96C544852}" name="学院3"/>
+    <tableColumn id="29" xr3:uid="{2CC01185-ED41-48BD-8EFC-28B4BC8289F8}" name="电话3"/>
+    <tableColumn id="30" xr3:uid="{E1BD1794-75D5-45F9-B89B-F7B2AA5B13FE}" name="邮箱3"/>
+    <tableColumn id="31" xr3:uid="{752A000B-8AF0-4B83-B720-93245B4EAB48}" name="学生4"/>
+    <tableColumn id="32" xr3:uid="{68EA25AE-B417-4B74-BA53-AB9E483FE1E9}" name="身份证4"/>
+    <tableColumn id="33" xr3:uid="{2058C2BD-1270-4119-8E8B-60F5CAC90F95}" name="年级4"/>
+    <tableColumn id="34" xr3:uid="{90013EE8-8ED2-4592-84A7-DB5638E12DA7}" name="年龄4"/>
+    <tableColumn id="35" xr3:uid="{9F957342-85A1-4B4D-9C3F-3E26FA1997CF}" name="专业4"/>
+    <tableColumn id="36" xr3:uid="{024B14B8-C95B-4688-B18D-E260E82688AD}" name="学院4"/>
+    <tableColumn id="37" xr3:uid="{389D9E91-BC29-4127-9339-1719D52FAB3F}" name="电话4"/>
+    <tableColumn id="38" xr3:uid="{98DF299B-A3BE-4622-83D3-5CFCF826A170}" name="邮箱4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{74FF1755-C176-4E67-A3F6-7FCBB3D15B76}" name="表2" displayName="表2" ref="A1:AL13" totalsRowShown="0">
+  <autoFilter ref="A1:AL13" xr:uid="{74FF1755-C176-4E67-A3F6-7FCBB3D15B76}"/>
+  <tableColumns count="38">
+    <tableColumn id="1" xr3:uid="{DDFDF236-6902-4C3F-A071-3AACBDA7EB7A}" name="报名号_x000a_（后期产生）"/>
+    <tableColumn id="2" xr3:uid="{4B059615-3631-4FE1-842C-6931E196531D}" name="作品名称"/>
+    <tableColumn id="3" xr3:uid="{226C1C71-23D4-43AC-B709-BB0DF79E6501}" name="学校"/>
+    <tableColumn id="4" xr3:uid="{0E66F3D8-BC9B-4DF0-93B7-28942D25E656}" name="学院"/>
+    <tableColumn id="5" xr3:uid="{35224B58-D2E0-451B-AAA5-7653D798677D}" name="指导老师"/>
+    <tableColumn id="6" xr3:uid="{C368C19B-2063-4985-8720-5F4B144C164D}" name="作品小类别"/>
+    <tableColumn id="7" xr3:uid="{0C7F7929-B191-4C5B-9C3C-6FA28503D361}" name="学生1"/>
+    <tableColumn id="8" xr3:uid="{B9886B14-72EB-4580-BE32-54AB2963EAF8}" name="身份证1"/>
+    <tableColumn id="9" xr3:uid="{EBDD7D9D-8860-4ADD-8BF3-3ECE437F865A}" name="年级1"/>
+    <tableColumn id="10" xr3:uid="{280E83F7-2CB0-48DC-A312-91EDA1A8EE41}" name="年龄1"/>
+    <tableColumn id="11" xr3:uid="{FCC7AE91-8521-4E1C-B986-0F8F9C145792}" name="专业1"/>
+    <tableColumn id="12" xr3:uid="{D2FBC926-2333-4755-B8C0-50C95618B430}" name="学院1"/>
+    <tableColumn id="13" xr3:uid="{DEEE95AE-0DAC-4734-805A-254B830E06B7}" name="电话1"/>
+    <tableColumn id="14" xr3:uid="{DF60DE2B-D82F-47F8-8D96-AE11F6A9E147}" name="邮箱1"/>
+    <tableColumn id="15" xr3:uid="{AC082AC6-760D-41A7-8E0B-3CC5F6C07873}" name="学生2"/>
+    <tableColumn id="16" xr3:uid="{FBAC9573-8807-4733-8BA8-CAE424D66FCD}" name="身份证2"/>
+    <tableColumn id="17" xr3:uid="{72E4603A-87A5-4179-8C2D-B9DF9CA76D9E}" name="年级2"/>
+    <tableColumn id="18" xr3:uid="{49DA85DB-331C-4C59-9A77-3E8A819D564A}" name="年龄2"/>
+    <tableColumn id="19" xr3:uid="{AEFF1490-8968-408E-BD53-653C7BF125B9}" name="专业2"/>
+    <tableColumn id="20" xr3:uid="{3B562E34-165F-478B-A021-0FAD726D7499}" name="学院2"/>
+    <tableColumn id="21" xr3:uid="{1058F918-411E-4E24-80E3-4FFBFB5DDD58}" name="电话2"/>
+    <tableColumn id="22" xr3:uid="{200FBB3F-64D7-4B9E-8800-D12EEFE2DA3D}" name="邮箱2"/>
+    <tableColumn id="23" xr3:uid="{F39097F0-AF83-403B-BCD6-18802FDB8845}" name="学生3"/>
+    <tableColumn id="24" xr3:uid="{C2C72695-08CE-4FE6-B2B3-44EEF16D4418}" name="身份证3"/>
+    <tableColumn id="25" xr3:uid="{600B0CD1-F784-4399-BAA1-A44E7258C466}" name="年级3"/>
+    <tableColumn id="26" xr3:uid="{3E4BBA40-8DE4-4ECE-A84F-82C96AA3708B}" name="年龄3"/>
+    <tableColumn id="27" xr3:uid="{FACAF568-256E-4469-91E9-7B83E422004F}" name="专业3"/>
+    <tableColumn id="28" xr3:uid="{3532D55D-BEA3-4E48-A5C4-58342660A1BE}" name="学院3"/>
+    <tableColumn id="29" xr3:uid="{14C54E46-5C3F-45FE-A455-348E7F4B7F94}" name="电话3"/>
+    <tableColumn id="30" xr3:uid="{ADD63A85-B049-436A-88F0-823CA1574D47}" name="邮箱3"/>
+    <tableColumn id="31" xr3:uid="{E5AD242B-07C0-42DE-9568-50124A722E2A}" name="学生4"/>
+    <tableColumn id="32" xr3:uid="{419CE417-F021-4CE0-9B1C-859998A04342}" name="身份证4"/>
+    <tableColumn id="33" xr3:uid="{1F64F18E-B743-49EA-A1A8-7E9BDFA9F03B}" name="年级4"/>
+    <tableColumn id="34" xr3:uid="{35E4B617-890E-408C-8882-F44DDC7F19E7}" name="年龄4"/>
+    <tableColumn id="35" xr3:uid="{52FFD150-C273-4473-A4A8-494CB7183571}" name="专业4"/>
+    <tableColumn id="36" xr3:uid="{87FE45EE-71E0-4FB9-AF79-0D88AB18D99E}" name="学院4"/>
+    <tableColumn id="37" xr3:uid="{B40D5A08-7D7C-49E2-9175-9E818513C490}" name="电话4"/>
+    <tableColumn id="38" xr3:uid="{D35EF05E-D651-4A48-ABE0-0C023E9A98BE}" name="邮箱4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{20338F5B-53F0-4C19-A67E-DF00BFCC942D}" name="表3" displayName="表3" ref="A1:AL7" totalsRowShown="0">
+  <autoFilter ref="A1:AL7" xr:uid="{20338F5B-53F0-4C19-A67E-DF00BFCC942D}"/>
+  <tableColumns count="38">
+    <tableColumn id="1" xr3:uid="{6512430C-9DAB-4DF8-8DCA-14703CA0369D}" name="报名号_x000a_（后期产生）"/>
+    <tableColumn id="2" xr3:uid="{530AD331-4F75-4CA2-81B1-72541680F2AC}" name="作品名称"/>
+    <tableColumn id="3" xr3:uid="{05A10AB5-4F0B-41F9-BF9A-AECF6D9511A6}" name="学校"/>
+    <tableColumn id="4" xr3:uid="{2AEAF282-165E-48B1-8517-4FD79F304A7B}" name="学院"/>
+    <tableColumn id="5" xr3:uid="{38A2F11D-3C93-41A5-8D34-5AF733305FCC}" name="指导老师"/>
+    <tableColumn id="6" xr3:uid="{DC813669-75EE-4569-8CF5-045E020B5B3C}" name="作品小类别"/>
+    <tableColumn id="7" xr3:uid="{2E9765E1-0814-4CF6-B53D-72EF37CF0567}" name="学生1"/>
+    <tableColumn id="8" xr3:uid="{92EC0135-B08E-4407-8B8D-575631584C61}" name="身份证1"/>
+    <tableColumn id="9" xr3:uid="{0F8B3010-E241-4AFA-8AC5-E5C2E90097DD}" name="年级1"/>
+    <tableColumn id="10" xr3:uid="{32D370CF-11E6-4E53-9C67-618E28DFC410}" name="年龄1"/>
+    <tableColumn id="11" xr3:uid="{DC4A7FBC-04D8-4A86-A2B8-707DD288097E}" name="专业1"/>
+    <tableColumn id="12" xr3:uid="{AE641AB6-F51B-4341-8C1D-DD9FAD6AADE9}" name="学院1"/>
+    <tableColumn id="13" xr3:uid="{D12EC711-5D29-4F34-AF0E-82B796F73691}" name="电话1"/>
+    <tableColumn id="14" xr3:uid="{CB5DF168-4E55-41A4-8349-74A57C690FB3}" name="邮箱1"/>
+    <tableColumn id="15" xr3:uid="{F7F32C07-1236-4132-AF18-752D68CF794C}" name="学生2"/>
+    <tableColumn id="16" xr3:uid="{A5A8A57E-1951-46C5-951F-4C5C89D481FD}" name="身份证2"/>
+    <tableColumn id="17" xr3:uid="{549F70A5-E856-4DB5-9530-949E73169C03}" name="年级2"/>
+    <tableColumn id="18" xr3:uid="{3B8FE5B1-31E2-42F6-B955-EFBA52482701}" name="年龄2"/>
+    <tableColumn id="19" xr3:uid="{45A54053-870B-4EC0-A8E8-EBC4FF6C6FA5}" name="专业2"/>
+    <tableColumn id="20" xr3:uid="{CB1B8AD4-EE52-4273-9A16-DDF4D5C61CF4}" name="学院2"/>
+    <tableColumn id="21" xr3:uid="{897FA8C7-AF1D-43D9-8AD1-5529C2C37F27}" name="电话2"/>
+    <tableColumn id="22" xr3:uid="{05BFB5B8-90F7-45B2-AAC8-5E448C31E766}" name="邮箱2"/>
+    <tableColumn id="23" xr3:uid="{5D7559ED-1106-4E46-B3B8-5ACAF031726E}" name="学生3"/>
+    <tableColumn id="24" xr3:uid="{EB7030F8-2962-4B83-A3B1-DA3128844A0E}" name="身份证3"/>
+    <tableColumn id="25" xr3:uid="{51DB0486-5DA2-4334-91FB-9A3B5695ECFB}" name="年级3"/>
+    <tableColumn id="26" xr3:uid="{5910076D-2268-41C1-A6A1-842F261E4DAD}" name="年龄3"/>
+    <tableColumn id="27" xr3:uid="{E118A692-8F2F-42D1-A328-450498DDB649}" name="专业3"/>
+    <tableColumn id="28" xr3:uid="{BDABABD8-3FAD-4A34-98CB-7C67571576AC}" name="学院3"/>
+    <tableColumn id="29" xr3:uid="{ADCA3287-C9DD-4B20-BFAA-94514C8DF002}" name="电话3"/>
+    <tableColumn id="30" xr3:uid="{3014EDC5-741C-4760-AF9F-E3B2A01240DA}" name="邮箱3"/>
+    <tableColumn id="31" xr3:uid="{DC4E0FD6-D971-456F-83CF-CEC6A2EBC9FD}" name="学生4"/>
+    <tableColumn id="32" xr3:uid="{858DD9D7-8B9E-45A4-96A6-5231393E7517}" name="身份证4"/>
+    <tableColumn id="33" xr3:uid="{2F8E69C7-1B99-4C70-B556-9A51AF47AF7A}" name="年级4"/>
+    <tableColumn id="34" xr3:uid="{E9F22E42-8F1A-4549-9953-003CD1D0B31A}" name="年龄4"/>
+    <tableColumn id="35" xr3:uid="{9686600E-4BC4-4438-A476-355929C76E02}" name="专业4"/>
+    <tableColumn id="36" xr3:uid="{0C36F48A-663C-4CBB-B658-FF4A61848D2D}" name="学院4"/>
+    <tableColumn id="37" xr3:uid="{0D0B4351-E104-448F-AD32-BE4E2038BAB7}" name="电话4"/>
+    <tableColumn id="38" xr3:uid="{703B02F7-D7D9-4695-9430-FB04D39919D5}" name="邮箱4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23349,7 +25856,7 @@
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -23493,8 +26000,11 @@
       <c r="AK1" s="9"/>
     </row>
     <row r="2" spans="1:37" ht="21" customHeight="1">
+      <c r="A2" s="5">
+        <v>20250066</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>857</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>63</v>
@@ -23503,25 +26013,25 @@
         <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="J2" s="1">
         <v>22</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>64</v>
@@ -23530,22 +26040,22 @@
         <v>18046085666</v>
       </c>
       <c r="N2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="Q2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R2" s="1">
         <v>22</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>64</v>
@@ -23554,7 +26064,7 @@
         <v>17706660011</v>
       </c>
       <c r="V2" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -23578,8 +26088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -23783,7 +26293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C2:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -24010,7 +26520,7 @@
   <dimension ref="E2:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E22"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -24127,4 +26637,5488 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B062D84E-532E-4548-82CC-C95B7DFEBFF5}">
+  <dimension ref="A1:AL40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="9.9140625" customWidth="1"/>
+    <col min="5" max="5" width="9.9140625" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="8" max="8" width="9.08203125" customWidth="1"/>
+    <col min="16" max="16" width="9.08203125" customWidth="1"/>
+    <col min="24" max="24" width="9.08203125" customWidth="1"/>
+    <col min="32" max="32" width="9.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T1" t="s">
+        <v>93</v>
+      </c>
+      <c r="U1" t="s">
+        <v>94</v>
+      </c>
+      <c r="V1" t="s">
+        <v>95</v>
+      </c>
+      <c r="W1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" t="s">
+        <v>676</v>
+      </c>
+      <c r="G2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O2" t="s">
+        <v>124</v>
+      </c>
+      <c r="P2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>126</v>
+      </c>
+      <c r="R2" t="s">
+        <v>127</v>
+      </c>
+      <c r="S2" t="s">
+        <v>128</v>
+      </c>
+      <c r="T2" t="s">
+        <v>129</v>
+      </c>
+      <c r="U2" t="s">
+        <v>130</v>
+      </c>
+      <c r="V2" t="s">
+        <v>131</v>
+      </c>
+      <c r="W2" t="s">
+        <v>131</v>
+      </c>
+      <c r="X2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38">
+      <c r="A3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L3" t="s">
+        <v>134</v>
+      </c>
+      <c r="M3" t="s">
+        <v>140</v>
+      </c>
+      <c r="N3" t="s">
+        <v>141</v>
+      </c>
+      <c r="O3" t="s">
+        <v>142</v>
+      </c>
+      <c r="P3" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>119</v>
+      </c>
+      <c r="R3" t="s">
+        <v>144</v>
+      </c>
+      <c r="S3" t="s">
+        <v>139</v>
+      </c>
+      <c r="T3" t="s">
+        <v>134</v>
+      </c>
+      <c r="U3" t="s">
+        <v>145</v>
+      </c>
+      <c r="V3" t="s">
+        <v>146</v>
+      </c>
+      <c r="W3" t="s">
+        <v>147</v>
+      </c>
+      <c r="X3" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L4" t="s">
+        <v>134</v>
+      </c>
+      <c r="M4" t="s">
+        <v>157</v>
+      </c>
+      <c r="N4" t="s">
+        <v>158</v>
+      </c>
+      <c r="O4" t="s">
+        <v>159</v>
+      </c>
+      <c r="P4" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>126</v>
+      </c>
+      <c r="R4" t="s">
+        <v>127</v>
+      </c>
+      <c r="S4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T4" t="s">
+        <v>134</v>
+      </c>
+      <c r="U4" t="s">
+        <v>161</v>
+      </c>
+      <c r="V4" t="s">
+        <v>162</v>
+      </c>
+      <c r="W4" t="s">
+        <v>163</v>
+      </c>
+      <c r="X4" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
+      <c r="A5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I5" t="s">
+        <v>119</v>
+      </c>
+      <c r="J5" t="s">
+        <v>174</v>
+      </c>
+      <c r="K5" t="s">
+        <v>175</v>
+      </c>
+      <c r="L5" t="s">
+        <v>176</v>
+      </c>
+      <c r="M5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N5" t="s">
+        <v>178</v>
+      </c>
+      <c r="O5" t="s">
+        <v>179</v>
+      </c>
+      <c r="P5" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>181</v>
+      </c>
+      <c r="R5" t="s">
+        <v>182</v>
+      </c>
+      <c r="S5" t="s">
+        <v>131</v>
+      </c>
+      <c r="T5" t="s">
+        <v>170</v>
+      </c>
+      <c r="U5" t="s">
+        <v>183</v>
+      </c>
+      <c r="V5" t="s">
+        <v>184</v>
+      </c>
+      <c r="W5" t="s">
+        <v>131</v>
+      </c>
+      <c r="X5" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38">
+      <c r="A6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" t="s">
+        <v>189</v>
+      </c>
+      <c r="H6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K6" t="s">
+        <v>191</v>
+      </c>
+      <c r="L6" t="s">
+        <v>192</v>
+      </c>
+      <c r="M6" t="s">
+        <v>193</v>
+      </c>
+      <c r="N6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O6" t="s">
+        <v>195</v>
+      </c>
+      <c r="P6" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>126</v>
+      </c>
+      <c r="R6" t="s">
+        <v>127</v>
+      </c>
+      <c r="S6" t="s">
+        <v>191</v>
+      </c>
+      <c r="T6" t="s">
+        <v>192</v>
+      </c>
+      <c r="U6" t="s">
+        <v>197</v>
+      </c>
+      <c r="V6" t="s">
+        <v>198</v>
+      </c>
+      <c r="W6" t="s">
+        <v>199</v>
+      </c>
+      <c r="X6" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38">
+      <c r="A7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H7" t="s">
+        <v>207</v>
+      </c>
+      <c r="I7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M7" t="s">
+        <v>210</v>
+      </c>
+      <c r="N7" t="s">
+        <v>211</v>
+      </c>
+      <c r="O7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>119</v>
+      </c>
+      <c r="R7" t="s">
+        <v>144</v>
+      </c>
+      <c r="S7" t="s">
+        <v>165</v>
+      </c>
+      <c r="T7" t="s">
+        <v>134</v>
+      </c>
+      <c r="U7" t="s">
+        <v>214</v>
+      </c>
+      <c r="V7" t="s">
+        <v>215</v>
+      </c>
+      <c r="W7" t="s">
+        <v>216</v>
+      </c>
+      <c r="X7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38">
+      <c r="A8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" t="s">
+        <v>223</v>
+      </c>
+      <c r="H8" t="s">
+        <v>224</v>
+      </c>
+      <c r="I8" t="s">
+        <v>126</v>
+      </c>
+      <c r="J8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" t="s">
+        <v>165</v>
+      </c>
+      <c r="L8" t="s">
+        <v>134</v>
+      </c>
+      <c r="M8" t="s">
+        <v>225</v>
+      </c>
+      <c r="N8" t="s">
+        <v>226</v>
+      </c>
+      <c r="O8" t="s">
+        <v>227</v>
+      </c>
+      <c r="P8" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>126</v>
+      </c>
+      <c r="R8" t="s">
+        <v>120</v>
+      </c>
+      <c r="S8" t="s">
+        <v>139</v>
+      </c>
+      <c r="T8" t="s">
+        <v>134</v>
+      </c>
+      <c r="U8" t="s">
+        <v>229</v>
+      </c>
+      <c r="V8" t="s">
+        <v>230</v>
+      </c>
+      <c r="W8" t="s">
+        <v>231</v>
+      </c>
+      <c r="X8" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38">
+      <c r="A9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F9" t="s">
+        <v>238</v>
+      </c>
+      <c r="G9" t="s">
+        <v>239</v>
+      </c>
+      <c r="H9" t="s">
+        <v>240</v>
+      </c>
+      <c r="I9" t="s">
+        <v>241</v>
+      </c>
+      <c r="J9" t="s">
+        <v>127</v>
+      </c>
+      <c r="K9" t="s">
+        <v>139</v>
+      </c>
+      <c r="L9" t="s">
+        <v>134</v>
+      </c>
+      <c r="M9" t="s">
+        <v>242</v>
+      </c>
+      <c r="N9" t="s">
+        <v>243</v>
+      </c>
+      <c r="O9" t="s">
+        <v>244</v>
+      </c>
+      <c r="P9" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>126</v>
+      </c>
+      <c r="R9" t="s">
+        <v>120</v>
+      </c>
+      <c r="S9" t="s">
+        <v>139</v>
+      </c>
+      <c r="T9" t="s">
+        <v>246</v>
+      </c>
+      <c r="U9" t="s">
+        <v>247</v>
+      </c>
+      <c r="V9" t="s">
+        <v>248</v>
+      </c>
+      <c r="W9" t="s">
+        <v>249</v>
+      </c>
+      <c r="X9" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38">
+      <c r="A10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F10" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" t="s">
+        <v>256</v>
+      </c>
+      <c r="H10" t="s">
+        <v>257</v>
+      </c>
+      <c r="I10" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" t="s">
+        <v>139</v>
+      </c>
+      <c r="L10" t="s">
+        <v>134</v>
+      </c>
+      <c r="M10" t="s">
+        <v>258</v>
+      </c>
+      <c r="N10" t="s">
+        <v>259</v>
+      </c>
+      <c r="O10" t="s">
+        <v>260</v>
+      </c>
+      <c r="P10" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>119</v>
+      </c>
+      <c r="R10" t="s">
+        <v>144</v>
+      </c>
+      <c r="S10" t="s">
+        <v>139</v>
+      </c>
+      <c r="T10" t="s">
+        <v>134</v>
+      </c>
+      <c r="U10" t="s">
+        <v>262</v>
+      </c>
+      <c r="V10" t="s">
+        <v>263</v>
+      </c>
+      <c r="W10" t="s">
+        <v>264</v>
+      </c>
+      <c r="X10" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38">
+      <c r="A11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" t="s">
+        <v>271</v>
+      </c>
+      <c r="F11" t="s">
+        <v>272</v>
+      </c>
+      <c r="G11" t="s">
+        <v>273</v>
+      </c>
+      <c r="H11" t="s">
+        <v>274</v>
+      </c>
+      <c r="I11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" t="s">
+        <v>165</v>
+      </c>
+      <c r="L11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M11" t="s">
+        <v>275</v>
+      </c>
+      <c r="N11" t="s">
+        <v>276</v>
+      </c>
+      <c r="O11" t="s">
+        <v>277</v>
+      </c>
+      <c r="P11" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>126</v>
+      </c>
+      <c r="R11" t="s">
+        <v>127</v>
+      </c>
+      <c r="S11" t="s">
+        <v>139</v>
+      </c>
+      <c r="T11" t="s">
+        <v>129</v>
+      </c>
+      <c r="U11" t="s">
+        <v>279</v>
+      </c>
+      <c r="V11" t="s">
+        <v>280</v>
+      </c>
+      <c r="W11" t="s">
+        <v>281</v>
+      </c>
+      <c r="X11" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38">
+      <c r="A12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>287</v>
+      </c>
+      <c r="E12" t="s">
+        <v>288</v>
+      </c>
+      <c r="F12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" t="s">
+        <v>289</v>
+      </c>
+      <c r="H12" t="s">
+        <v>290</v>
+      </c>
+      <c r="I12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" t="s">
+        <v>291</v>
+      </c>
+      <c r="K12" t="s">
+        <v>292</v>
+      </c>
+      <c r="L12" t="s">
+        <v>293</v>
+      </c>
+      <c r="M12" t="s">
+        <v>294</v>
+      </c>
+      <c r="N12" t="s">
+        <v>295</v>
+      </c>
+      <c r="O12" t="s">
+        <v>296</v>
+      </c>
+      <c r="P12" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>298</v>
+      </c>
+      <c r="R12" t="s">
+        <v>291</v>
+      </c>
+      <c r="S12" t="s">
+        <v>292</v>
+      </c>
+      <c r="T12" t="s">
+        <v>293</v>
+      </c>
+      <c r="U12" t="s">
+        <v>299</v>
+      </c>
+      <c r="V12" t="s">
+        <v>300</v>
+      </c>
+      <c r="W12" t="s">
+        <v>301</v>
+      </c>
+      <c r="X12" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>293</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38">
+      <c r="A13" t="s">
+        <v>305</v>
+      </c>
+      <c r="B13" t="s">
+        <v>306</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" t="s">
+        <v>307</v>
+      </c>
+      <c r="F13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G13" t="s">
+        <v>308</v>
+      </c>
+      <c r="H13" t="s">
+        <v>309</v>
+      </c>
+      <c r="I13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" t="s">
+        <v>310</v>
+      </c>
+      <c r="N13" t="s">
+        <v>311</v>
+      </c>
+      <c r="O13" t="s">
+        <v>312</v>
+      </c>
+      <c r="P13" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>126</v>
+      </c>
+      <c r="R13" t="s">
+        <v>120</v>
+      </c>
+      <c r="S13" t="s">
+        <v>165</v>
+      </c>
+      <c r="T13" t="s">
+        <v>134</v>
+      </c>
+      <c r="U13" t="s">
+        <v>314</v>
+      </c>
+      <c r="V13" t="s">
+        <v>315</v>
+      </c>
+      <c r="W13" t="s">
+        <v>316</v>
+      </c>
+      <c r="X13" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>320</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38">
+      <c r="A14" t="s">
+        <v>322</v>
+      </c>
+      <c r="B14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E14" t="s">
+        <v>324</v>
+      </c>
+      <c r="F14" t="s">
+        <v>325</v>
+      </c>
+      <c r="G14" t="s">
+        <v>326</v>
+      </c>
+      <c r="H14" t="s">
+        <v>327</v>
+      </c>
+      <c r="I14" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" t="s">
+        <v>328</v>
+      </c>
+      <c r="L14" t="s">
+        <v>192</v>
+      </c>
+      <c r="M14" t="s">
+        <v>329</v>
+      </c>
+      <c r="N14" t="s">
+        <v>330</v>
+      </c>
+      <c r="O14" t="s">
+        <v>331</v>
+      </c>
+      <c r="P14" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>126</v>
+      </c>
+      <c r="R14" t="s">
+        <v>127</v>
+      </c>
+      <c r="S14" t="s">
+        <v>292</v>
+      </c>
+      <c r="T14" t="s">
+        <v>287</v>
+      </c>
+      <c r="U14" t="s">
+        <v>333</v>
+      </c>
+      <c r="V14" t="s">
+        <v>334</v>
+      </c>
+      <c r="W14" t="s">
+        <v>335</v>
+      </c>
+      <c r="X14" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38">
+      <c r="A15" t="s">
+        <v>339</v>
+      </c>
+      <c r="B15" t="s">
+        <v>340</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>341</v>
+      </c>
+      <c r="E15" t="s">
+        <v>342</v>
+      </c>
+      <c r="F15" t="s">
+        <v>325</v>
+      </c>
+      <c r="G15" t="s">
+        <v>343</v>
+      </c>
+      <c r="H15" t="s">
+        <v>344</v>
+      </c>
+      <c r="I15" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" t="s">
+        <v>120</v>
+      </c>
+      <c r="K15" t="s">
+        <v>345</v>
+      </c>
+      <c r="L15" t="s">
+        <v>341</v>
+      </c>
+      <c r="M15" t="s">
+        <v>346</v>
+      </c>
+      <c r="N15" t="s">
+        <v>347</v>
+      </c>
+      <c r="O15" t="s">
+        <v>348</v>
+      </c>
+      <c r="P15" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>126</v>
+      </c>
+      <c r="R15" t="s">
+        <v>291</v>
+      </c>
+      <c r="S15" t="s">
+        <v>345</v>
+      </c>
+      <c r="T15" t="s">
+        <v>341</v>
+      </c>
+      <c r="U15" t="s">
+        <v>350</v>
+      </c>
+      <c r="V15" t="s">
+        <v>351</v>
+      </c>
+      <c r="W15" t="s">
+        <v>352</v>
+      </c>
+      <c r="X15" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>291</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>354</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38">
+      <c r="A16" t="s">
+        <v>356</v>
+      </c>
+      <c r="B16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>341</v>
+      </c>
+      <c r="E16" t="s">
+        <v>342</v>
+      </c>
+      <c r="F16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" t="s">
+        <v>358</v>
+      </c>
+      <c r="H16" t="s">
+        <v>359</v>
+      </c>
+      <c r="I16" t="s">
+        <v>126</v>
+      </c>
+      <c r="J16" t="s">
+        <v>291</v>
+      </c>
+      <c r="K16" t="s">
+        <v>345</v>
+      </c>
+      <c r="L16" t="s">
+        <v>341</v>
+      </c>
+      <c r="M16" t="s">
+        <v>360</v>
+      </c>
+      <c r="N16" t="s">
+        <v>361</v>
+      </c>
+      <c r="O16" t="s">
+        <v>362</v>
+      </c>
+      <c r="P16" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>126</v>
+      </c>
+      <c r="R16" t="s">
+        <v>291</v>
+      </c>
+      <c r="S16" t="s">
+        <v>345</v>
+      </c>
+      <c r="T16" t="s">
+        <v>341</v>
+      </c>
+      <c r="U16" t="s">
+        <v>364</v>
+      </c>
+      <c r="V16" t="s">
+        <v>365</v>
+      </c>
+      <c r="W16" t="s">
+        <v>366</v>
+      </c>
+      <c r="X16" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>368</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>369</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
+      <c r="A17" t="s">
+        <v>371</v>
+      </c>
+      <c r="B17" t="s">
+        <v>372</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" t="s">
+        <v>373</v>
+      </c>
+      <c r="F17" t="s">
+        <v>325</v>
+      </c>
+      <c r="G17" t="s">
+        <v>374</v>
+      </c>
+      <c r="H17" t="s">
+        <v>375</v>
+      </c>
+      <c r="I17" t="s">
+        <v>126</v>
+      </c>
+      <c r="J17" t="s">
+        <v>120</v>
+      </c>
+      <c r="K17" t="s">
+        <v>139</v>
+      </c>
+      <c r="L17" t="s">
+        <v>134</v>
+      </c>
+      <c r="M17" t="s">
+        <v>376</v>
+      </c>
+      <c r="N17" t="s">
+        <v>377</v>
+      </c>
+      <c r="O17" t="s">
+        <v>378</v>
+      </c>
+      <c r="P17" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>126</v>
+      </c>
+      <c r="R17" t="s">
+        <v>120</v>
+      </c>
+      <c r="S17" t="s">
+        <v>139</v>
+      </c>
+      <c r="T17" t="s">
+        <v>134</v>
+      </c>
+      <c r="U17" t="s">
+        <v>380</v>
+      </c>
+      <c r="V17" t="s">
+        <v>381</v>
+      </c>
+      <c r="W17" t="s">
+        <v>382</v>
+      </c>
+      <c r="X17" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>384</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
+      <c r="A18" t="s">
+        <v>386</v>
+      </c>
+      <c r="B18" t="s">
+        <v>387</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" t="s">
+        <v>388</v>
+      </c>
+      <c r="F18" t="s">
+        <v>272</v>
+      </c>
+      <c r="G18" t="s">
+        <v>389</v>
+      </c>
+      <c r="H18" t="s">
+        <v>390</v>
+      </c>
+      <c r="I18" t="s">
+        <v>126</v>
+      </c>
+      <c r="J18" t="s">
+        <v>120</v>
+      </c>
+      <c r="K18" t="s">
+        <v>391</v>
+      </c>
+      <c r="L18" t="s">
+        <v>134</v>
+      </c>
+      <c r="M18" t="s">
+        <v>392</v>
+      </c>
+      <c r="N18" t="s">
+        <v>393</v>
+      </c>
+      <c r="O18" t="s">
+        <v>394</v>
+      </c>
+      <c r="P18" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>126</v>
+      </c>
+      <c r="R18" t="s">
+        <v>127</v>
+      </c>
+      <c r="S18" t="s">
+        <v>391</v>
+      </c>
+      <c r="T18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U18" t="s">
+        <v>396</v>
+      </c>
+      <c r="V18" t="s">
+        <v>397</v>
+      </c>
+      <c r="W18" t="s">
+        <v>398</v>
+      </c>
+      <c r="X18" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>391</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>400</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
+      <c r="A19" t="s">
+        <v>402</v>
+      </c>
+      <c r="B19" t="s">
+        <v>403</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" t="s">
+        <v>404</v>
+      </c>
+      <c r="F19" t="s">
+        <v>272</v>
+      </c>
+      <c r="G19" t="s">
+        <v>405</v>
+      </c>
+      <c r="H19" t="s">
+        <v>406</v>
+      </c>
+      <c r="I19" t="s">
+        <v>126</v>
+      </c>
+      <c r="J19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K19" t="s">
+        <v>165</v>
+      </c>
+      <c r="L19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M19" t="s">
+        <v>407</v>
+      </c>
+      <c r="N19" t="s">
+        <v>408</v>
+      </c>
+      <c r="O19" t="s">
+        <v>409</v>
+      </c>
+      <c r="P19" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>126</v>
+      </c>
+      <c r="R19" t="s">
+        <v>120</v>
+      </c>
+      <c r="S19" t="s">
+        <v>139</v>
+      </c>
+      <c r="T19" t="s">
+        <v>134</v>
+      </c>
+      <c r="U19" t="s">
+        <v>411</v>
+      </c>
+      <c r="V19" t="s">
+        <v>412</v>
+      </c>
+      <c r="W19" t="s">
+        <v>413</v>
+      </c>
+      <c r="X19" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>415</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
+      <c r="A20" t="s">
+        <v>417</v>
+      </c>
+      <c r="B20" t="s">
+        <v>418</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>419</v>
+      </c>
+      <c r="E20" t="s">
+        <v>420</v>
+      </c>
+      <c r="F20" t="s">
+        <v>238</v>
+      </c>
+      <c r="G20" t="s">
+        <v>421</v>
+      </c>
+      <c r="H20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I20" t="s">
+        <v>126</v>
+      </c>
+      <c r="J20" t="s">
+        <v>120</v>
+      </c>
+      <c r="K20" t="s">
+        <v>139</v>
+      </c>
+      <c r="L20" t="s">
+        <v>419</v>
+      </c>
+      <c r="M20" t="s">
+        <v>423</v>
+      </c>
+      <c r="N20" t="s">
+        <v>424</v>
+      </c>
+      <c r="O20" t="s">
+        <v>425</v>
+      </c>
+      <c r="P20" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>126</v>
+      </c>
+      <c r="R20" t="s">
+        <v>120</v>
+      </c>
+      <c r="S20" t="s">
+        <v>165</v>
+      </c>
+      <c r="T20" t="s">
+        <v>419</v>
+      </c>
+      <c r="U20" t="s">
+        <v>427</v>
+      </c>
+      <c r="V20" t="s">
+        <v>428</v>
+      </c>
+      <c r="W20" t="s">
+        <v>429</v>
+      </c>
+      <c r="X20" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>419</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>431</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
+      <c r="A21" t="s">
+        <v>433</v>
+      </c>
+      <c r="B21" t="s">
+        <v>434</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>287</v>
+      </c>
+      <c r="E21" t="s">
+        <v>288</v>
+      </c>
+      <c r="F21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" t="s">
+        <v>435</v>
+      </c>
+      <c r="H21" t="s">
+        <v>436</v>
+      </c>
+      <c r="I21" t="s">
+        <v>126</v>
+      </c>
+      <c r="J21" t="s">
+        <v>120</v>
+      </c>
+      <c r="K21" t="s">
+        <v>292</v>
+      </c>
+      <c r="L21" t="s">
+        <v>287</v>
+      </c>
+      <c r="M21" t="s">
+        <v>437</v>
+      </c>
+      <c r="N21" t="s">
+        <v>438</v>
+      </c>
+      <c r="O21" t="s">
+        <v>439</v>
+      </c>
+      <c r="P21" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>126</v>
+      </c>
+      <c r="R21" t="s">
+        <v>144</v>
+      </c>
+      <c r="S21" t="s">
+        <v>292</v>
+      </c>
+      <c r="T21" t="s">
+        <v>287</v>
+      </c>
+      <c r="U21" t="s">
+        <v>441</v>
+      </c>
+      <c r="V21" t="s">
+        <v>442</v>
+      </c>
+      <c r="W21" t="s">
+        <v>443</v>
+      </c>
+      <c r="X21" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>445</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
+      <c r="A22" t="s">
+        <v>447</v>
+      </c>
+      <c r="B22" t="s">
+        <v>448</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" t="s">
+        <v>449</v>
+      </c>
+      <c r="F22" t="s">
+        <v>154</v>
+      </c>
+      <c r="G22" t="s">
+        <v>450</v>
+      </c>
+      <c r="H22" t="s">
+        <v>451</v>
+      </c>
+      <c r="I22" t="s">
+        <v>126</v>
+      </c>
+      <c r="J22" t="s">
+        <v>120</v>
+      </c>
+      <c r="K22" t="s">
+        <v>292</v>
+      </c>
+      <c r="L22" t="s">
+        <v>287</v>
+      </c>
+      <c r="M22" t="s">
+        <v>452</v>
+      </c>
+      <c r="N22" t="s">
+        <v>453</v>
+      </c>
+      <c r="O22" t="s">
+        <v>454</v>
+      </c>
+      <c r="P22" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>126</v>
+      </c>
+      <c r="R22" t="s">
+        <v>127</v>
+      </c>
+      <c r="S22" t="s">
+        <v>165</v>
+      </c>
+      <c r="T22" t="s">
+        <v>134</v>
+      </c>
+      <c r="U22" t="s">
+        <v>456</v>
+      </c>
+      <c r="V22" t="s">
+        <v>457</v>
+      </c>
+      <c r="W22" t="s">
+        <v>331</v>
+      </c>
+      <c r="X22" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>458</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
+      <c r="A23" t="s">
+        <v>460</v>
+      </c>
+      <c r="B23" t="s">
+        <v>461</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" t="s">
+        <v>462</v>
+      </c>
+      <c r="F23" t="s">
+        <v>272</v>
+      </c>
+      <c r="G23" t="s">
+        <v>463</v>
+      </c>
+      <c r="H23" t="s">
+        <v>464</v>
+      </c>
+      <c r="I23" t="s">
+        <v>126</v>
+      </c>
+      <c r="J23" t="s">
+        <v>120</v>
+      </c>
+      <c r="K23" t="s">
+        <v>165</v>
+      </c>
+      <c r="L23" t="s">
+        <v>134</v>
+      </c>
+      <c r="M23" t="s">
+        <v>465</v>
+      </c>
+      <c r="N23" t="s">
+        <v>466</v>
+      </c>
+      <c r="O23" t="s">
+        <v>467</v>
+      </c>
+      <c r="P23" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>119</v>
+      </c>
+      <c r="R23" t="s">
+        <v>144</v>
+      </c>
+      <c r="S23" t="s">
+        <v>139</v>
+      </c>
+      <c r="T23" t="s">
+        <v>134</v>
+      </c>
+      <c r="U23" t="s">
+        <v>469</v>
+      </c>
+      <c r="V23" t="s">
+        <v>470</v>
+      </c>
+      <c r="W23" t="s">
+        <v>471</v>
+      </c>
+      <c r="X23" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>291</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>473</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
+      <c r="A24" t="s">
+        <v>475</v>
+      </c>
+      <c r="B24" t="s">
+        <v>476</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" t="s">
+        <v>477</v>
+      </c>
+      <c r="F24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G24" t="s">
+        <v>478</v>
+      </c>
+      <c r="H24" t="s">
+        <v>479</v>
+      </c>
+      <c r="I24" t="s">
+        <v>126</v>
+      </c>
+      <c r="J24" t="s">
+        <v>127</v>
+      </c>
+      <c r="K24" t="s">
+        <v>165</v>
+      </c>
+      <c r="L24" t="s">
+        <v>134</v>
+      </c>
+      <c r="M24" t="s">
+        <v>480</v>
+      </c>
+      <c r="N24" t="s">
+        <v>481</v>
+      </c>
+      <c r="O24" t="s">
+        <v>482</v>
+      </c>
+      <c r="P24" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>126</v>
+      </c>
+      <c r="R24">
+        <v>20</v>
+      </c>
+      <c r="S24" t="s">
+        <v>165</v>
+      </c>
+      <c r="T24" t="s">
+        <v>134</v>
+      </c>
+      <c r="U24" t="s">
+        <v>484</v>
+      </c>
+      <c r="V24" t="s">
+        <v>485</v>
+      </c>
+      <c r="W24" t="s">
+        <v>486</v>
+      </c>
+      <c r="X24" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>488</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
+      <c r="A25" t="s">
+        <v>490</v>
+      </c>
+      <c r="B25" t="s">
+        <v>491</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" t="s">
+        <v>492</v>
+      </c>
+      <c r="F25" t="s">
+        <v>272</v>
+      </c>
+      <c r="G25" t="s">
+        <v>493</v>
+      </c>
+      <c r="H25" t="s">
+        <v>494</v>
+      </c>
+      <c r="I25" t="s">
+        <v>126</v>
+      </c>
+      <c r="J25" t="s">
+        <v>368</v>
+      </c>
+      <c r="K25" t="s">
+        <v>139</v>
+      </c>
+      <c r="L25" t="s">
+        <v>134</v>
+      </c>
+      <c r="M25" t="s">
+        <v>495</v>
+      </c>
+      <c r="N25" t="s">
+        <v>496</v>
+      </c>
+      <c r="O25" t="s">
+        <v>486</v>
+      </c>
+      <c r="P25" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>126</v>
+      </c>
+      <c r="R25">
+        <v>20</v>
+      </c>
+      <c r="S25" t="s">
+        <v>139</v>
+      </c>
+      <c r="T25" t="s">
+        <v>134</v>
+      </c>
+      <c r="U25" t="s">
+        <v>488</v>
+      </c>
+      <c r="V25" t="s">
+        <v>489</v>
+      </c>
+      <c r="W25" t="s">
+        <v>450</v>
+      </c>
+      <c r="X25" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>452</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
+      <c r="A26" t="s">
+        <v>497</v>
+      </c>
+      <c r="B26" t="s">
+        <v>498</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" t="s">
+        <v>499</v>
+      </c>
+      <c r="F26" t="s">
+        <v>272</v>
+      </c>
+      <c r="G26" t="s">
+        <v>482</v>
+      </c>
+      <c r="H26" t="s">
+        <v>483</v>
+      </c>
+      <c r="I26" t="s">
+        <v>126</v>
+      </c>
+      <c r="J26" t="s">
+        <v>127</v>
+      </c>
+      <c r="K26" t="s">
+        <v>165</v>
+      </c>
+      <c r="L26" t="s">
+        <v>134</v>
+      </c>
+      <c r="M26" t="s">
+        <v>484</v>
+      </c>
+      <c r="N26" t="s">
+        <v>485</v>
+      </c>
+      <c r="O26" t="s">
+        <v>500</v>
+      </c>
+      <c r="P26" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>119</v>
+      </c>
+      <c r="R26">
+        <v>19</v>
+      </c>
+      <c r="S26" t="s">
+        <v>139</v>
+      </c>
+      <c r="T26" t="s">
+        <v>134</v>
+      </c>
+      <c r="U26" t="s">
+        <v>502</v>
+      </c>
+      <c r="V26" t="s">
+        <v>503</v>
+      </c>
+      <c r="W26" t="s">
+        <v>486</v>
+      </c>
+      <c r="X26" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>488</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
+      <c r="A27" t="s">
+        <v>504</v>
+      </c>
+      <c r="B27" t="s">
+        <v>505</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" t="s">
+        <v>420</v>
+      </c>
+      <c r="F27" t="s">
+        <v>272</v>
+      </c>
+      <c r="G27" t="s">
+        <v>506</v>
+      </c>
+      <c r="H27" t="s">
+        <v>507</v>
+      </c>
+      <c r="I27" t="s">
+        <v>126</v>
+      </c>
+      <c r="J27" t="s">
+        <v>120</v>
+      </c>
+      <c r="K27" t="s">
+        <v>139</v>
+      </c>
+      <c r="L27" t="s">
+        <v>129</v>
+      </c>
+      <c r="M27" t="s">
+        <v>508</v>
+      </c>
+      <c r="N27" t="s">
+        <v>509</v>
+      </c>
+      <c r="O27" t="s">
+        <v>510</v>
+      </c>
+      <c r="P27" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>126</v>
+      </c>
+      <c r="R27">
+        <v>20</v>
+      </c>
+      <c r="S27" t="s">
+        <v>165</v>
+      </c>
+      <c r="T27" t="s">
+        <v>129</v>
+      </c>
+      <c r="U27" t="s">
+        <v>512</v>
+      </c>
+      <c r="V27" t="s">
+        <v>513</v>
+      </c>
+      <c r="W27" t="s">
+        <v>514</v>
+      </c>
+      <c r="X27" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>516</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
+      <c r="A28" t="s">
+        <v>518</v>
+      </c>
+      <c r="B28" t="s">
+        <v>519</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" t="s">
+        <v>420</v>
+      </c>
+      <c r="F28" t="s">
+        <v>272</v>
+      </c>
+      <c r="G28" t="s">
+        <v>514</v>
+      </c>
+      <c r="H28" t="s">
+        <v>515</v>
+      </c>
+      <c r="I28" t="s">
+        <v>126</v>
+      </c>
+      <c r="J28" t="s">
+        <v>127</v>
+      </c>
+      <c r="K28" t="s">
+        <v>165</v>
+      </c>
+      <c r="L28" t="s">
+        <v>134</v>
+      </c>
+      <c r="M28" t="s">
+        <v>516</v>
+      </c>
+      <c r="N28" t="s">
+        <v>517</v>
+      </c>
+      <c r="O28" t="s">
+        <v>520</v>
+      </c>
+      <c r="P28" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>126</v>
+      </c>
+      <c r="R28">
+        <v>20</v>
+      </c>
+      <c r="S28" t="s">
+        <v>165</v>
+      </c>
+      <c r="T28" t="s">
+        <v>134</v>
+      </c>
+      <c r="U28" t="s">
+        <v>522</v>
+      </c>
+      <c r="V28" t="s">
+        <v>523</v>
+      </c>
+      <c r="W28" t="s">
+        <v>524</v>
+      </c>
+      <c r="X28" t="s">
+        <v>525</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>526</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
+      <c r="A29" t="s">
+        <v>528</v>
+      </c>
+      <c r="B29" t="s">
+        <v>529</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
+        <v>170</v>
+      </c>
+      <c r="E29" t="s">
+        <v>449</v>
+      </c>
+      <c r="F29" t="s">
+        <v>272</v>
+      </c>
+      <c r="G29" t="s">
+        <v>530</v>
+      </c>
+      <c r="H29" t="s">
+        <v>531</v>
+      </c>
+      <c r="I29" t="s">
+        <v>181</v>
+      </c>
+      <c r="J29" t="s">
+        <v>144</v>
+      </c>
+      <c r="K29" t="s">
+        <v>266</v>
+      </c>
+      <c r="L29" t="s">
+        <v>170</v>
+      </c>
+      <c r="M29" t="s">
+        <v>532</v>
+      </c>
+      <c r="N29" t="s">
+        <v>533</v>
+      </c>
+      <c r="O29" t="s">
+        <v>131</v>
+      </c>
+      <c r="P29" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>131</v>
+      </c>
+      <c r="R29" t="s">
+        <v>131</v>
+      </c>
+      <c r="S29" t="s">
+        <v>131</v>
+      </c>
+      <c r="T29" t="s">
+        <v>131</v>
+      </c>
+      <c r="U29" t="s">
+        <v>131</v>
+      </c>
+      <c r="V29" t="s">
+        <v>131</v>
+      </c>
+      <c r="W29" t="s">
+        <v>131</v>
+      </c>
+      <c r="X29" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
+      <c r="A30" t="s">
+        <v>534</v>
+      </c>
+      <c r="B30" t="s">
+        <v>535</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>536</v>
+      </c>
+      <c r="E30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" t="s">
+        <v>537</v>
+      </c>
+      <c r="H30" t="s">
+        <v>538</v>
+      </c>
+      <c r="I30" t="s">
+        <v>119</v>
+      </c>
+      <c r="J30" t="s">
+        <v>144</v>
+      </c>
+      <c r="K30" t="s">
+        <v>539</v>
+      </c>
+      <c r="L30" t="s">
+        <v>540</v>
+      </c>
+      <c r="M30" t="s">
+        <v>541</v>
+      </c>
+      <c r="N30" t="s">
+        <v>542</v>
+      </c>
+      <c r="O30" t="s">
+        <v>543</v>
+      </c>
+      <c r="P30" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>119</v>
+      </c>
+      <c r="R30">
+        <v>19</v>
+      </c>
+      <c r="S30" t="s">
+        <v>545</v>
+      </c>
+      <c r="T30" t="s">
+        <v>192</v>
+      </c>
+      <c r="U30" t="s">
+        <v>546</v>
+      </c>
+      <c r="V30" t="s">
+        <v>547</v>
+      </c>
+      <c r="W30" t="s">
+        <v>131</v>
+      </c>
+      <c r="X30" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
+      <c r="A31" t="s">
+        <v>548</v>
+      </c>
+      <c r="B31" t="s">
+        <v>549</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" t="s">
+        <v>324</v>
+      </c>
+      <c r="F31" t="s">
+        <v>325</v>
+      </c>
+      <c r="G31" t="s">
+        <v>550</v>
+      </c>
+      <c r="H31" t="s">
+        <v>551</v>
+      </c>
+      <c r="I31" t="s">
+        <v>119</v>
+      </c>
+      <c r="J31" t="s">
+        <v>120</v>
+      </c>
+      <c r="K31" t="s">
+        <v>139</v>
+      </c>
+      <c r="L31" t="s">
+        <v>134</v>
+      </c>
+      <c r="M31" t="s">
+        <v>552</v>
+      </c>
+      <c r="N31" t="s">
+        <v>553</v>
+      </c>
+      <c r="O31" t="s">
+        <v>554</v>
+      </c>
+      <c r="P31" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>119</v>
+      </c>
+      <c r="R31">
+        <v>20</v>
+      </c>
+      <c r="S31" t="s">
+        <v>139</v>
+      </c>
+      <c r="T31" t="s">
+        <v>134</v>
+      </c>
+      <c r="U31" t="s">
+        <v>556</v>
+      </c>
+      <c r="V31" t="s">
+        <v>557</v>
+      </c>
+      <c r="W31" t="s">
+        <v>558</v>
+      </c>
+      <c r="X31" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>560</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
+      <c r="A32" t="s">
+        <v>562</v>
+      </c>
+      <c r="B32" t="s">
+        <v>563</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" t="s">
+        <v>564</v>
+      </c>
+      <c r="F32" t="s">
+        <v>116</v>
+      </c>
+      <c r="G32" t="s">
+        <v>565</v>
+      </c>
+      <c r="H32" t="s">
+        <v>566</v>
+      </c>
+      <c r="I32" t="s">
+        <v>126</v>
+      </c>
+      <c r="J32" t="s">
+        <v>127</v>
+      </c>
+      <c r="K32" t="s">
+        <v>292</v>
+      </c>
+      <c r="L32" t="s">
+        <v>114</v>
+      </c>
+      <c r="M32" t="s">
+        <v>567</v>
+      </c>
+      <c r="N32" t="s">
+        <v>568</v>
+      </c>
+      <c r="O32" t="s">
+        <v>569</v>
+      </c>
+      <c r="P32" t="s">
+        <v>570</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>126</v>
+      </c>
+      <c r="R32">
+        <v>19</v>
+      </c>
+      <c r="S32" t="s">
+        <v>292</v>
+      </c>
+      <c r="T32" t="s">
+        <v>114</v>
+      </c>
+      <c r="U32" t="s">
+        <v>571</v>
+      </c>
+      <c r="V32" t="s">
+        <v>572</v>
+      </c>
+      <c r="W32" t="s">
+        <v>573</v>
+      </c>
+      <c r="X32" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>575</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30">
+      <c r="A33" t="s">
+        <v>577</v>
+      </c>
+      <c r="B33" t="s">
+        <v>578</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" t="s">
+        <v>579</v>
+      </c>
+      <c r="F33" t="s">
+        <v>154</v>
+      </c>
+      <c r="G33" t="s">
+        <v>580</v>
+      </c>
+      <c r="H33" t="s">
+        <v>581</v>
+      </c>
+      <c r="I33" t="s">
+        <v>126</v>
+      </c>
+      <c r="J33" t="s">
+        <v>120</v>
+      </c>
+      <c r="K33" t="s">
+        <v>139</v>
+      </c>
+      <c r="L33" t="s">
+        <v>134</v>
+      </c>
+      <c r="M33" t="s">
+        <v>582</v>
+      </c>
+      <c r="N33" t="s">
+        <v>583</v>
+      </c>
+      <c r="O33" t="s">
+        <v>584</v>
+      </c>
+      <c r="P33" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>126</v>
+      </c>
+      <c r="R33">
+        <v>20</v>
+      </c>
+      <c r="S33" t="s">
+        <v>139</v>
+      </c>
+      <c r="T33" t="s">
+        <v>134</v>
+      </c>
+      <c r="U33" t="s">
+        <v>586</v>
+      </c>
+      <c r="V33" t="s">
+        <v>587</v>
+      </c>
+      <c r="W33" t="s">
+        <v>588</v>
+      </c>
+      <c r="X33" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>590</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30">
+      <c r="A34" t="s">
+        <v>592</v>
+      </c>
+      <c r="B34" t="s">
+        <v>593</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>287</v>
+      </c>
+      <c r="E34" t="s">
+        <v>594</v>
+      </c>
+      <c r="F34" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34" t="s">
+        <v>595</v>
+      </c>
+      <c r="H34" t="s">
+        <v>596</v>
+      </c>
+      <c r="I34" t="s">
+        <v>126</v>
+      </c>
+      <c r="J34" t="s">
+        <v>120</v>
+      </c>
+      <c r="K34" t="s">
+        <v>597</v>
+      </c>
+      <c r="L34" t="s">
+        <v>287</v>
+      </c>
+      <c r="M34" t="s">
+        <v>598</v>
+      </c>
+      <c r="N34" t="s">
+        <v>599</v>
+      </c>
+      <c r="O34" t="s">
+        <v>600</v>
+      </c>
+      <c r="P34" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>126</v>
+      </c>
+      <c r="R34" t="s">
+        <v>120</v>
+      </c>
+      <c r="S34" t="s">
+        <v>139</v>
+      </c>
+      <c r="T34" t="s">
+        <v>134</v>
+      </c>
+      <c r="U34" t="s">
+        <v>602</v>
+      </c>
+      <c r="V34" t="s">
+        <v>603</v>
+      </c>
+      <c r="W34" t="s">
+        <v>131</v>
+      </c>
+      <c r="X34" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30">
+      <c r="A35" t="s">
+        <v>604</v>
+      </c>
+      <c r="B35" t="s">
+        <v>605</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" t="s">
+        <v>606</v>
+      </c>
+      <c r="E35" t="s">
+        <v>492</v>
+      </c>
+      <c r="F35" t="s">
+        <v>154</v>
+      </c>
+      <c r="G35" t="s">
+        <v>607</v>
+      </c>
+      <c r="H35" t="s">
+        <v>608</v>
+      </c>
+      <c r="I35" t="s">
+        <v>181</v>
+      </c>
+      <c r="J35" t="s">
+        <v>174</v>
+      </c>
+      <c r="K35" t="s">
+        <v>609</v>
+      </c>
+      <c r="L35" t="s">
+        <v>606</v>
+      </c>
+      <c r="M35" t="s">
+        <v>610</v>
+      </c>
+      <c r="N35" t="s">
+        <v>611</v>
+      </c>
+      <c r="O35" t="s">
+        <v>612</v>
+      </c>
+      <c r="P35" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>181</v>
+      </c>
+      <c r="R35" t="s">
+        <v>174</v>
+      </c>
+      <c r="S35" t="s">
+        <v>614</v>
+      </c>
+      <c r="T35" t="s">
+        <v>606</v>
+      </c>
+      <c r="U35" t="s">
+        <v>615</v>
+      </c>
+      <c r="V35" t="s">
+        <v>616</v>
+      </c>
+      <c r="W35" t="s">
+        <v>131</v>
+      </c>
+      <c r="X35" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
+      <c r="A36" t="s">
+        <v>617</v>
+      </c>
+      <c r="B36" t="s">
+        <v>618</v>
+      </c>
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" t="s">
+        <v>619</v>
+      </c>
+      <c r="E36" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" t="s">
+        <v>272</v>
+      </c>
+      <c r="G36" t="s">
+        <v>620</v>
+      </c>
+      <c r="H36" t="s">
+        <v>621</v>
+      </c>
+      <c r="I36" t="s">
+        <v>119</v>
+      </c>
+      <c r="J36" t="s">
+        <v>144</v>
+      </c>
+      <c r="K36" t="s">
+        <v>191</v>
+      </c>
+      <c r="L36" t="s">
+        <v>619</v>
+      </c>
+      <c r="M36" t="s">
+        <v>622</v>
+      </c>
+      <c r="N36" t="s">
+        <v>623</v>
+      </c>
+      <c r="O36" t="s">
+        <v>624</v>
+      </c>
+      <c r="P36" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>119</v>
+      </c>
+      <c r="R36" t="s">
+        <v>120</v>
+      </c>
+      <c r="S36" t="s">
+        <v>191</v>
+      </c>
+      <c r="T36" t="s">
+        <v>619</v>
+      </c>
+      <c r="U36" t="s">
+        <v>626</v>
+      </c>
+      <c r="V36" t="s">
+        <v>627</v>
+      </c>
+      <c r="W36" t="s">
+        <v>131</v>
+      </c>
+      <c r="X36" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
+      <c r="A37" t="s">
+        <v>628</v>
+      </c>
+      <c r="B37" t="s">
+        <v>629</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" t="s">
+        <v>419</v>
+      </c>
+      <c r="E37" t="s">
+        <v>630</v>
+      </c>
+      <c r="F37" t="s">
+        <v>154</v>
+      </c>
+      <c r="G37" t="s">
+        <v>199</v>
+      </c>
+      <c r="H37" t="s">
+        <v>200</v>
+      </c>
+      <c r="I37" t="s">
+        <v>126</v>
+      </c>
+      <c r="J37" t="s">
+        <v>120</v>
+      </c>
+      <c r="K37" t="s">
+        <v>139</v>
+      </c>
+      <c r="L37" t="s">
+        <v>419</v>
+      </c>
+      <c r="M37" t="s">
+        <v>201</v>
+      </c>
+      <c r="N37" t="s">
+        <v>202</v>
+      </c>
+      <c r="O37" t="s">
+        <v>631</v>
+      </c>
+      <c r="P37" t="s">
+        <v>632</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>126</v>
+      </c>
+      <c r="R37" t="s">
+        <v>120</v>
+      </c>
+      <c r="S37" t="s">
+        <v>139</v>
+      </c>
+      <c r="T37" t="s">
+        <v>419</v>
+      </c>
+      <c r="U37" t="s">
+        <v>633</v>
+      </c>
+      <c r="V37" t="s">
+        <v>634</v>
+      </c>
+      <c r="W37" t="s">
+        <v>635</v>
+      </c>
+      <c r="X37" t="s">
+        <v>636</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>419</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>637</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30">
+      <c r="A38" t="s">
+        <v>639</v>
+      </c>
+      <c r="B38" t="s">
+        <v>640</v>
+      </c>
+      <c r="C38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" t="s">
+        <v>287</v>
+      </c>
+      <c r="E38" t="s">
+        <v>641</v>
+      </c>
+      <c r="F38" t="s">
+        <v>325</v>
+      </c>
+      <c r="G38" t="s">
+        <v>642</v>
+      </c>
+      <c r="H38" t="s">
+        <v>643</v>
+      </c>
+      <c r="I38" t="s">
+        <v>126</v>
+      </c>
+      <c r="J38" t="s">
+        <v>127</v>
+      </c>
+      <c r="K38" t="s">
+        <v>292</v>
+      </c>
+      <c r="L38" t="s">
+        <v>287</v>
+      </c>
+      <c r="M38" t="s">
+        <v>644</v>
+      </c>
+      <c r="N38" t="s">
+        <v>645</v>
+      </c>
+      <c r="O38" t="s">
+        <v>646</v>
+      </c>
+      <c r="P38" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>126</v>
+      </c>
+      <c r="R38" t="s">
+        <v>127</v>
+      </c>
+      <c r="S38" t="s">
+        <v>191</v>
+      </c>
+      <c r="T38" t="s">
+        <v>187</v>
+      </c>
+      <c r="U38" t="s">
+        <v>648</v>
+      </c>
+      <c r="V38" t="s">
+        <v>649</v>
+      </c>
+      <c r="W38" t="s">
+        <v>131</v>
+      </c>
+      <c r="X38" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30">
+      <c r="A39" t="s">
+        <v>650</v>
+      </c>
+      <c r="B39" t="s">
+        <v>651</v>
+      </c>
+      <c r="C39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" t="s">
+        <v>324</v>
+      </c>
+      <c r="F39" t="s">
+        <v>325</v>
+      </c>
+      <c r="G39" t="s">
+        <v>652</v>
+      </c>
+      <c r="H39" t="s">
+        <v>653</v>
+      </c>
+      <c r="I39" t="s">
+        <v>119</v>
+      </c>
+      <c r="J39" t="s">
+        <v>120</v>
+      </c>
+      <c r="K39" t="s">
+        <v>139</v>
+      </c>
+      <c r="L39" t="s">
+        <v>134</v>
+      </c>
+      <c r="M39" t="s">
+        <v>654</v>
+      </c>
+      <c r="N39" t="s">
+        <v>655</v>
+      </c>
+      <c r="O39" t="s">
+        <v>656</v>
+      </c>
+      <c r="P39" t="s">
+        <v>657</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>119</v>
+      </c>
+      <c r="R39" t="s">
+        <v>144</v>
+      </c>
+      <c r="S39" t="s">
+        <v>139</v>
+      </c>
+      <c r="T39" t="s">
+        <v>134</v>
+      </c>
+      <c r="U39" t="s">
+        <v>658</v>
+      </c>
+      <c r="V39" t="s">
+        <v>659</v>
+      </c>
+      <c r="W39" t="s">
+        <v>131</v>
+      </c>
+      <c r="X39" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30">
+      <c r="A40" t="s">
+        <v>660</v>
+      </c>
+      <c r="B40" t="s">
+        <v>661</v>
+      </c>
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" t="s">
+        <v>154</v>
+      </c>
+      <c r="G40" t="s">
+        <v>662</v>
+      </c>
+      <c r="H40" t="s">
+        <v>663</v>
+      </c>
+      <c r="I40" t="s">
+        <v>126</v>
+      </c>
+      <c r="J40" t="s">
+        <v>120</v>
+      </c>
+      <c r="K40" t="s">
+        <v>139</v>
+      </c>
+      <c r="L40" t="s">
+        <v>134</v>
+      </c>
+      <c r="M40" t="s">
+        <v>664</v>
+      </c>
+      <c r="N40" t="s">
+        <v>665</v>
+      </c>
+      <c r="O40" t="s">
+        <v>666</v>
+      </c>
+      <c r="P40" t="s">
+        <v>667</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>126</v>
+      </c>
+      <c r="R40" t="s">
+        <v>120</v>
+      </c>
+      <c r="S40" t="s">
+        <v>139</v>
+      </c>
+      <c r="T40" t="s">
+        <v>134</v>
+      </c>
+      <c r="U40" t="s">
+        <v>668</v>
+      </c>
+      <c r="V40" t="s">
+        <v>669</v>
+      </c>
+      <c r="W40" t="s">
+        <v>670</v>
+      </c>
+      <c r="X40" t="s">
+        <v>671</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>672</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>673</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>674</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>675</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1909DE-9C97-4B40-AAD1-8FC24DFE8DA0}">
+  <dimension ref="A1:AL13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="9.9140625" customWidth="1"/>
+    <col min="5" max="5" width="9.9140625" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="8" max="8" width="9.08203125" customWidth="1"/>
+    <col min="16" max="16" width="9.08203125" customWidth="1"/>
+    <col min="24" max="24" width="9.08203125" customWidth="1"/>
+    <col min="32" max="32" width="9.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T1" t="s">
+        <v>93</v>
+      </c>
+      <c r="U1" t="s">
+        <v>94</v>
+      </c>
+      <c r="V1" t="s">
+        <v>95</v>
+      </c>
+      <c r="W1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38">
+      <c r="A2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>679</v>
+      </c>
+      <c r="E2" t="s">
+        <v>680</v>
+      </c>
+      <c r="F2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H2" t="s">
+        <v>682</v>
+      </c>
+      <c r="I2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" t="s">
+        <v>683</v>
+      </c>
+      <c r="L2" t="s">
+        <v>679</v>
+      </c>
+      <c r="M2" t="s">
+        <v>684</v>
+      </c>
+      <c r="N2" t="s">
+        <v>685</v>
+      </c>
+      <c r="O2" t="s">
+        <v>686</v>
+      </c>
+      <c r="P2" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>126</v>
+      </c>
+      <c r="R2" t="s">
+        <v>127</v>
+      </c>
+      <c r="S2" t="s">
+        <v>683</v>
+      </c>
+      <c r="T2" t="s">
+        <v>679</v>
+      </c>
+      <c r="U2" t="s">
+        <v>688</v>
+      </c>
+      <c r="V2" t="s">
+        <v>689</v>
+      </c>
+      <c r="W2" t="s">
+        <v>690</v>
+      </c>
+      <c r="X2" t="s">
+        <v>691</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>692</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>679</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>693</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38">
+      <c r="A3" t="s">
+        <v>695</v>
+      </c>
+      <c r="B3" t="s">
+        <v>696</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>679</v>
+      </c>
+      <c r="E3" t="s">
+        <v>680</v>
+      </c>
+      <c r="F3" t="s">
+        <v>325</v>
+      </c>
+      <c r="G3" t="s">
+        <v>681</v>
+      </c>
+      <c r="H3" t="s">
+        <v>697</v>
+      </c>
+      <c r="I3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" t="s">
+        <v>683</v>
+      </c>
+      <c r="L3" t="s">
+        <v>679</v>
+      </c>
+      <c r="M3" t="s">
+        <v>684</v>
+      </c>
+      <c r="N3" t="s">
+        <v>685</v>
+      </c>
+      <c r="O3" t="s">
+        <v>686</v>
+      </c>
+      <c r="P3" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>126</v>
+      </c>
+      <c r="R3" t="s">
+        <v>127</v>
+      </c>
+      <c r="S3" t="s">
+        <v>683</v>
+      </c>
+      <c r="T3" t="s">
+        <v>679</v>
+      </c>
+      <c r="U3" t="s">
+        <v>688</v>
+      </c>
+      <c r="V3" t="s">
+        <v>689</v>
+      </c>
+      <c r="W3" t="s">
+        <v>690</v>
+      </c>
+      <c r="X3" t="s">
+        <v>691</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>692</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>679</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>693</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
+      <c r="A4" t="s">
+        <v>698</v>
+      </c>
+      <c r="B4" t="s">
+        <v>699</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>679</v>
+      </c>
+      <c r="E4" t="s">
+        <v>680</v>
+      </c>
+      <c r="F4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" t="s">
+        <v>700</v>
+      </c>
+      <c r="H4" t="s">
+        <v>701</v>
+      </c>
+      <c r="I4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" t="s">
+        <v>683</v>
+      </c>
+      <c r="L4" t="s">
+        <v>679</v>
+      </c>
+      <c r="M4" t="s">
+        <v>702</v>
+      </c>
+      <c r="N4" t="s">
+        <v>703</v>
+      </c>
+      <c r="O4" t="s">
+        <v>704</v>
+      </c>
+      <c r="P4" t="s">
+        <v>705</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>126</v>
+      </c>
+      <c r="R4" t="s">
+        <v>127</v>
+      </c>
+      <c r="S4" t="s">
+        <v>683</v>
+      </c>
+      <c r="T4" t="s">
+        <v>679</v>
+      </c>
+      <c r="U4" t="s">
+        <v>706</v>
+      </c>
+      <c r="V4" t="s">
+        <v>707</v>
+      </c>
+      <c r="W4" t="s">
+        <v>708</v>
+      </c>
+      <c r="X4" t="s">
+        <v>709</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>683</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>679</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>710</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
+      <c r="A5" t="s">
+        <v>712</v>
+      </c>
+      <c r="B5" t="s">
+        <v>713</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>679</v>
+      </c>
+      <c r="E5" t="s">
+        <v>680</v>
+      </c>
+      <c r="F5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" t="s">
+        <v>714</v>
+      </c>
+      <c r="H5" t="s">
+        <v>715</v>
+      </c>
+      <c r="I5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" t="s">
+        <v>683</v>
+      </c>
+      <c r="L5" t="s">
+        <v>679</v>
+      </c>
+      <c r="M5" t="s">
+        <v>716</v>
+      </c>
+      <c r="N5" t="s">
+        <v>717</v>
+      </c>
+      <c r="O5" t="s">
+        <v>718</v>
+      </c>
+      <c r="P5" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>126</v>
+      </c>
+      <c r="R5" t="s">
+        <v>127</v>
+      </c>
+      <c r="S5" t="s">
+        <v>683</v>
+      </c>
+      <c r="T5" t="s">
+        <v>679</v>
+      </c>
+      <c r="U5" t="s">
+        <v>720</v>
+      </c>
+      <c r="V5" t="s">
+        <v>721</v>
+      </c>
+      <c r="W5" t="s">
+        <v>722</v>
+      </c>
+      <c r="X5" t="s">
+        <v>723</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>683</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>679</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>724</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38">
+      <c r="A6" t="s">
+        <v>726</v>
+      </c>
+      <c r="B6" t="s">
+        <v>713</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>679</v>
+      </c>
+      <c r="E6" t="s">
+        <v>680</v>
+      </c>
+      <c r="F6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" t="s">
+        <v>714</v>
+      </c>
+      <c r="H6" t="s">
+        <v>715</v>
+      </c>
+      <c r="I6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" t="s">
+        <v>120</v>
+      </c>
+      <c r="K6" t="s">
+        <v>683</v>
+      </c>
+      <c r="L6" t="s">
+        <v>679</v>
+      </c>
+      <c r="M6" t="s">
+        <v>716</v>
+      </c>
+      <c r="N6" t="s">
+        <v>717</v>
+      </c>
+      <c r="O6" t="s">
+        <v>718</v>
+      </c>
+      <c r="P6" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>126</v>
+      </c>
+      <c r="R6" t="s">
+        <v>127</v>
+      </c>
+      <c r="S6" t="s">
+        <v>683</v>
+      </c>
+      <c r="T6" t="s">
+        <v>679</v>
+      </c>
+      <c r="U6" t="s">
+        <v>720</v>
+      </c>
+      <c r="V6" t="s">
+        <v>721</v>
+      </c>
+      <c r="W6" t="s">
+        <v>722</v>
+      </c>
+      <c r="X6" t="s">
+        <v>723</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>683</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>679</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>724</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38">
+      <c r="A7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B7" t="s">
+        <v>699</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>679</v>
+      </c>
+      <c r="E7" t="s">
+        <v>680</v>
+      </c>
+      <c r="F7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" t="s">
+        <v>700</v>
+      </c>
+      <c r="H7" t="s">
+        <v>701</v>
+      </c>
+      <c r="I7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K7" t="s">
+        <v>683</v>
+      </c>
+      <c r="L7" t="s">
+        <v>679</v>
+      </c>
+      <c r="M7" t="s">
+        <v>702</v>
+      </c>
+      <c r="N7" t="s">
+        <v>703</v>
+      </c>
+      <c r="O7" t="s">
+        <v>704</v>
+      </c>
+      <c r="P7" t="s">
+        <v>705</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>126</v>
+      </c>
+      <c r="R7" t="s">
+        <v>127</v>
+      </c>
+      <c r="S7" t="s">
+        <v>683</v>
+      </c>
+      <c r="T7" t="s">
+        <v>679</v>
+      </c>
+      <c r="U7" t="s">
+        <v>706</v>
+      </c>
+      <c r="V7" t="s">
+        <v>707</v>
+      </c>
+      <c r="W7" t="s">
+        <v>708</v>
+      </c>
+      <c r="X7" t="s">
+        <v>709</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>683</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>679</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>710</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38">
+      <c r="A8" t="s">
+        <v>728</v>
+      </c>
+      <c r="B8" t="s">
+        <v>729</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>679</v>
+      </c>
+      <c r="E8" t="s">
+        <v>680</v>
+      </c>
+      <c r="F8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" t="s">
+        <v>730</v>
+      </c>
+      <c r="H8" t="s">
+        <v>731</v>
+      </c>
+      <c r="I8" t="s">
+        <v>119</v>
+      </c>
+      <c r="J8" t="s">
+        <v>144</v>
+      </c>
+      <c r="K8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L8" t="s">
+        <v>679</v>
+      </c>
+      <c r="M8" t="s">
+        <v>733</v>
+      </c>
+      <c r="N8" t="s">
+        <v>734</v>
+      </c>
+      <c r="O8" t="s">
+        <v>735</v>
+      </c>
+      <c r="P8" t="s">
+        <v>736</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>119</v>
+      </c>
+      <c r="R8" t="s">
+        <v>174</v>
+      </c>
+      <c r="S8" t="s">
+        <v>737</v>
+      </c>
+      <c r="T8" t="s">
+        <v>679</v>
+      </c>
+      <c r="U8" t="s">
+        <v>738</v>
+      </c>
+      <c r="V8" t="s">
+        <v>739</v>
+      </c>
+      <c r="W8" t="s">
+        <v>740</v>
+      </c>
+      <c r="X8" t="s">
+        <v>741</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>732</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>679</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38">
+      <c r="A9" t="s">
+        <v>744</v>
+      </c>
+      <c r="B9" t="s">
+        <v>745</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>679</v>
+      </c>
+      <c r="E9" t="s">
+        <v>680</v>
+      </c>
+      <c r="F9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" t="s">
+        <v>746</v>
+      </c>
+      <c r="H9" t="s">
+        <v>747</v>
+      </c>
+      <c r="I9" t="s">
+        <v>126</v>
+      </c>
+      <c r="J9" t="s">
+        <v>127</v>
+      </c>
+      <c r="K9" t="s">
+        <v>748</v>
+      </c>
+      <c r="L9" t="s">
+        <v>679</v>
+      </c>
+      <c r="M9" t="s">
+        <v>749</v>
+      </c>
+      <c r="N9" t="s">
+        <v>750</v>
+      </c>
+      <c r="O9" t="s">
+        <v>751</v>
+      </c>
+      <c r="P9" t="s">
+        <v>752</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>126</v>
+      </c>
+      <c r="R9" t="s">
+        <v>127</v>
+      </c>
+      <c r="S9" t="s">
+        <v>748</v>
+      </c>
+      <c r="T9" t="s">
+        <v>679</v>
+      </c>
+      <c r="U9" t="s">
+        <v>753</v>
+      </c>
+      <c r="V9" t="s">
+        <v>754</v>
+      </c>
+      <c r="W9" t="s">
+        <v>755</v>
+      </c>
+      <c r="X9" t="s">
+        <v>756</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>757</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>679</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>758</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38">
+      <c r="A10" t="s">
+        <v>760</v>
+      </c>
+      <c r="B10" t="s">
+        <v>761</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>679</v>
+      </c>
+      <c r="E10" t="s">
+        <v>680</v>
+      </c>
+      <c r="F10" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" t="s">
+        <v>746</v>
+      </c>
+      <c r="H10" t="s">
+        <v>747</v>
+      </c>
+      <c r="I10" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" t="s">
+        <v>748</v>
+      </c>
+      <c r="L10" t="s">
+        <v>679</v>
+      </c>
+      <c r="M10" t="s">
+        <v>749</v>
+      </c>
+      <c r="N10" t="s">
+        <v>762</v>
+      </c>
+      <c r="O10" t="s">
+        <v>751</v>
+      </c>
+      <c r="P10" t="s">
+        <v>752</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>126</v>
+      </c>
+      <c r="R10" t="s">
+        <v>127</v>
+      </c>
+      <c r="S10" t="s">
+        <v>748</v>
+      </c>
+      <c r="T10" t="s">
+        <v>679</v>
+      </c>
+      <c r="U10" t="s">
+        <v>753</v>
+      </c>
+      <c r="V10" t="s">
+        <v>754</v>
+      </c>
+      <c r="W10" t="s">
+        <v>755</v>
+      </c>
+      <c r="X10" t="s">
+        <v>756</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>757</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>679</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>758</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38">
+      <c r="A11" t="s">
+        <v>763</v>
+      </c>
+      <c r="B11" t="s">
+        <v>764</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>679</v>
+      </c>
+      <c r="E11" t="s">
+        <v>680</v>
+      </c>
+      <c r="F11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" t="s">
+        <v>730</v>
+      </c>
+      <c r="H11" t="s">
+        <v>731</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K11" t="s">
+        <v>732</v>
+      </c>
+      <c r="L11" t="s">
+        <v>679</v>
+      </c>
+      <c r="M11" t="s">
+        <v>733</v>
+      </c>
+      <c r="N11" t="s">
+        <v>734</v>
+      </c>
+      <c r="O11" t="s">
+        <v>735</v>
+      </c>
+      <c r="P11" t="s">
+        <v>736</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>119</v>
+      </c>
+      <c r="R11" t="s">
+        <v>174</v>
+      </c>
+      <c r="S11" t="s">
+        <v>737</v>
+      </c>
+      <c r="T11" t="s">
+        <v>679</v>
+      </c>
+      <c r="U11" t="s">
+        <v>738</v>
+      </c>
+      <c r="V11" t="s">
+        <v>739</v>
+      </c>
+      <c r="W11" t="s">
+        <v>740</v>
+      </c>
+      <c r="X11" t="s">
+        <v>741</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>732</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>679</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38">
+      <c r="A12" t="s">
+        <v>765</v>
+      </c>
+      <c r="B12" t="s">
+        <v>766</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>679</v>
+      </c>
+      <c r="E12" t="s">
+        <v>680</v>
+      </c>
+      <c r="F12" t="s">
+        <v>325</v>
+      </c>
+      <c r="G12" t="s">
+        <v>767</v>
+      </c>
+      <c r="H12" t="s">
+        <v>768</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>144</v>
+      </c>
+      <c r="K12" t="s">
+        <v>769</v>
+      </c>
+      <c r="L12" t="s">
+        <v>679</v>
+      </c>
+      <c r="M12" t="s">
+        <v>770</v>
+      </c>
+      <c r="N12" t="s">
+        <v>771</v>
+      </c>
+      <c r="O12" t="s">
+        <v>772</v>
+      </c>
+      <c r="P12" t="s">
+        <v>773</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>119</v>
+      </c>
+      <c r="R12" t="s">
+        <v>120</v>
+      </c>
+      <c r="S12" t="s">
+        <v>769</v>
+      </c>
+      <c r="T12" t="s">
+        <v>679</v>
+      </c>
+      <c r="U12" t="s">
+        <v>774</v>
+      </c>
+      <c r="V12" t="s">
+        <v>775</v>
+      </c>
+      <c r="W12" t="s">
+        <v>131</v>
+      </c>
+      <c r="X12" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38">
+      <c r="A13" t="s">
+        <v>776</v>
+      </c>
+      <c r="B13" t="s">
+        <v>777</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>679</v>
+      </c>
+      <c r="E13" t="s">
+        <v>680</v>
+      </c>
+      <c r="F13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" t="s">
+        <v>778</v>
+      </c>
+      <c r="H13" t="s">
+        <v>779</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s">
+        <v>757</v>
+      </c>
+      <c r="L13" t="s">
+        <v>679</v>
+      </c>
+      <c r="M13" t="s">
+        <v>780</v>
+      </c>
+      <c r="N13" t="s">
+        <v>781</v>
+      </c>
+      <c r="O13" t="s">
+        <v>782</v>
+      </c>
+      <c r="P13" t="s">
+        <v>783</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>126</v>
+      </c>
+      <c r="R13" t="s">
+        <v>127</v>
+      </c>
+      <c r="S13" t="s">
+        <v>757</v>
+      </c>
+      <c r="T13" t="s">
+        <v>679</v>
+      </c>
+      <c r="U13" t="s">
+        <v>784</v>
+      </c>
+      <c r="V13" t="s">
+        <v>785</v>
+      </c>
+      <c r="W13" t="s">
+        <v>786</v>
+      </c>
+      <c r="X13" t="s">
+        <v>787</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>788</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>679</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>790</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11EC01B-5CAF-4CE6-9F5D-560157DA556B}">
+  <dimension ref="A1:AL7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="9.9140625" customWidth="1"/>
+    <col min="5" max="5" width="9.9140625" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="8" max="8" width="9.08203125" customWidth="1"/>
+    <col min="16" max="16" width="9.08203125" customWidth="1"/>
+    <col min="24" max="24" width="9.08203125" customWidth="1"/>
+    <col min="32" max="32" width="9.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T1" t="s">
+        <v>93</v>
+      </c>
+      <c r="U1" t="s">
+        <v>94</v>
+      </c>
+      <c r="V1" t="s">
+        <v>95</v>
+      </c>
+      <c r="W1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38">
+      <c r="A2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>793</v>
+      </c>
+      <c r="E2" t="s">
+        <v>794</v>
+      </c>
+      <c r="F2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G2" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2" t="s">
+        <v>796</v>
+      </c>
+      <c r="I2">
+        <v>2019</v>
+      </c>
+      <c r="J2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K2" t="s">
+        <v>797</v>
+      </c>
+      <c r="L2" t="s">
+        <v>793</v>
+      </c>
+      <c r="M2" t="s">
+        <v>798</v>
+      </c>
+      <c r="N2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38">
+      <c r="A3" t="s">
+        <v>800</v>
+      </c>
+      <c r="B3" t="s">
+        <v>801</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>802</v>
+      </c>
+      <c r="E3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G3" t="s">
+        <v>804</v>
+      </c>
+      <c r="H3" t="s">
+        <v>805</v>
+      </c>
+      <c r="I3">
+        <v>2018</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>806</v>
+      </c>
+      <c r="L3" t="s">
+        <v>807</v>
+      </c>
+      <c r="M3">
+        <v>13564761560</v>
+      </c>
+      <c r="N3" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
+      <c r="A4" t="s">
+        <v>809</v>
+      </c>
+      <c r="B4" t="s">
+        <v>810</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>811</v>
+      </c>
+      <c r="E4" t="s">
+        <v>812</v>
+      </c>
+      <c r="F4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" t="s">
+        <v>813</v>
+      </c>
+      <c r="H4" t="s">
+        <v>814</v>
+      </c>
+      <c r="I4">
+        <v>2018</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>815</v>
+      </c>
+      <c r="L4" t="s">
+        <v>679</v>
+      </c>
+      <c r="M4">
+        <v>18019111653</v>
+      </c>
+      <c r="N4" t="s">
+        <v>816</v>
+      </c>
+      <c r="O4" t="s">
+        <v>817</v>
+      </c>
+      <c r="P4" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q4">
+        <v>2017</v>
+      </c>
+      <c r="R4">
+        <v>21</v>
+      </c>
+      <c r="S4" t="s">
+        <v>819</v>
+      </c>
+      <c r="T4" t="s">
+        <v>820</v>
+      </c>
+      <c r="U4">
+        <v>17317111215</v>
+      </c>
+      <c r="V4" t="s">
+        <v>821</v>
+      </c>
+      <c r="W4" t="s">
+        <v>822</v>
+      </c>
+      <c r="X4" t="s">
+        <v>823</v>
+      </c>
+      <c r="Y4">
+        <v>2017</v>
+      </c>
+      <c r="Z4">
+        <v>21</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>815</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>679</v>
+      </c>
+      <c r="AC4">
+        <v>18403456450</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
+      <c r="A5" t="s">
+        <v>825</v>
+      </c>
+      <c r="B5" t="s">
+        <v>826</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>827</v>
+      </c>
+      <c r="E5" t="s">
+        <v>828</v>
+      </c>
+      <c r="F5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G5" t="s">
+        <v>829</v>
+      </c>
+      <c r="H5" t="s">
+        <v>830</v>
+      </c>
+      <c r="I5">
+        <v>2018</v>
+      </c>
+      <c r="J5">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>609</v>
+      </c>
+      <c r="L5" t="s">
+        <v>827</v>
+      </c>
+      <c r="M5">
+        <v>18817829538</v>
+      </c>
+      <c r="N5" t="s">
+        <v>831</v>
+      </c>
+      <c r="O5" t="s">
+        <v>832</v>
+      </c>
+      <c r="P5" t="s">
+        <v>833</v>
+      </c>
+      <c r="Q5">
+        <v>2018</v>
+      </c>
+      <c r="R5">
+        <v>19</v>
+      </c>
+      <c r="S5" t="s">
+        <v>834</v>
+      </c>
+      <c r="T5" t="s">
+        <v>835</v>
+      </c>
+      <c r="U5">
+        <v>18817729259</v>
+      </c>
+      <c r="V5" t="s">
+        <v>836</v>
+      </c>
+      <c r="W5" t="s">
+        <v>837</v>
+      </c>
+      <c r="X5" t="s">
+        <v>838</v>
+      </c>
+      <c r="Y5">
+        <v>2018</v>
+      </c>
+      <c r="Z5">
+        <v>19</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>839</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>840</v>
+      </c>
+      <c r="AC5">
+        <v>18706282542</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38">
+      <c r="A6" t="s">
+        <v>842</v>
+      </c>
+      <c r="B6" t="s">
+        <v>843</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>844</v>
+      </c>
+      <c r="E6" t="s">
+        <v>794</v>
+      </c>
+      <c r="F6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" t="s">
+        <v>845</v>
+      </c>
+      <c r="H6" t="s">
+        <v>846</v>
+      </c>
+      <c r="I6">
+        <v>2018</v>
+      </c>
+      <c r="J6">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>847</v>
+      </c>
+      <c r="L6" t="s">
+        <v>844</v>
+      </c>
+      <c r="M6">
+        <v>13917430214</v>
+      </c>
+      <c r="N6" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38">
+      <c r="A7" t="s">
+        <v>849</v>
+      </c>
+      <c r="B7" t="s">
+        <v>850</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>851</v>
+      </c>
+      <c r="E7" t="s">
+        <v>852</v>
+      </c>
+      <c r="F7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G7" t="s">
+        <v>853</v>
+      </c>
+      <c r="H7" t="s">
+        <v>854</v>
+      </c>
+      <c r="I7">
+        <v>2019</v>
+      </c>
+      <c r="J7">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>855</v>
+      </c>
+      <c r="L7" t="s">
+        <v>802</v>
+      </c>
+      <c r="M7">
+        <v>16621289520</v>
+      </c>
+      <c r="N7" t="s">
+        <v>856</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>